--- a/PythonResources/Data/Consumption/Sympheny/post_1800_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1800_coo.xlsx
@@ -399,7 +399,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.6041624293479</v>
+        <v>1.604162429347899</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -463,7 +463,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>40.09651415445196</v>
+        <v>40.09651415445195</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -551,7 +551,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2.426009820224364</v>
+        <v>2.426009820224363</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -575,7 +575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.45105625733044</v>
+        <v>1.451056257330439</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.5033524396112472</v>
+        <v>0.5033524396112471</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>1.451320021265235</v>
+        <v>1.451320021265234</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>9.403770417526587</v>
+        <v>9.403770417526584</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>3.614210662979443</v>
+        <v>3.614210662979441</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>9.753961001623029</v>
+        <v>9.753961001623027</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>6.094207099235613</v>
+        <v>6.094207099235612</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>2.097409779546104</v>
+        <v>2.097409779546103</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>0.8248337847604232</v>
+        <v>0.8248337847604231</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>0.8329166840067033</v>
+        <v>0.8329166840067032</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>4.826352478882767</v>
+        <v>4.826352478882766</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>1.396474707090151</v>
+        <v>1.39647470709015</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>0.7195157763070823</v>
+        <v>0.7195157763070822</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>0.6240830539877884</v>
+        <v>0.6240830539877883</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>0.9559127375120966</v>
+        <v>0.9559127375120964</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>0.8757959076732447</v>
+        <v>0.8757959076732446</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>5.008789200449455</v>
+        <v>5.008789200449454</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>1.124539951737062</v>
+        <v>1.124539951737061</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>13.21823652122333</v>
+        <v>13.21823652122332</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>1.570854905804038</v>
+        <v>1.570854905804037</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>5.310740291582238</v>
+        <v>5.310740291582237</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>46.08864461092183</v>
+        <v>46.08864461092182</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>31.35098128975876</v>
+        <v>31.35098128975875</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>69.91766462239849</v>
+        <v>69.91766462239848</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>23.03198401473327</v>
+        <v>23.03198401473326</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>7.776464168255601</v>
+        <v>7.7764641682556</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>3.517057613663207</v>
+        <v>3.517057613663206</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>6.014550390927459</v>
+        <v>6.014550390927458</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>22.07123853579365</v>
+        <v>22.07123853579364</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>27.14245186747797</v>
+        <v>27.14245186747796</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>8.465474180148425</v>
+        <v>8.465474180148423</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>0.8150217663860414</v>
+        <v>0.8150217663860413</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>6.109153722207341</v>
+        <v>6.10915372220734</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>0.8383443596427114</v>
+        <v>0.8383443596427113</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>0.8932336344735947</v>
+        <v>0.8932336344735946</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>0.325455388433424</v>
+        <v>0.3254553884334239</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>414</v>
       </c>
       <c r="B414">
-        <v>0.3606239130727854</v>
+        <v>0.3606239130727853</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>0.4470681466363358</v>
+        <v>0.4470681466363357</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>0.7670050074117667</v>
+        <v>0.7670050074117666</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>0.4050212447195926</v>
+        <v>0.4050212447195925</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>0.2051582261230629</v>
+        <v>0.2051582261230628</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>0.5854709446441562</v>
+        <v>0.5854709446441561</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>493</v>
       </c>
       <c r="B493">
-        <v>0.6180575134329112</v>
+        <v>0.618057513432911</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>531</v>
       </c>
       <c r="B531">
-        <v>0.1544710038445059</v>
+        <v>0.1544710038445058</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>581</v>
       </c>
       <c r="B581">
-        <v>0.1259302807444708</v>
+        <v>0.1259302807444707</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>0.493065646154234</v>
+        <v>0.4930656461542339</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>1.843305466185171</v>
+        <v>1.84330546618517</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>629</v>
       </c>
       <c r="B629">
-        <v>0.2330817416156772</v>
+        <v>0.2330817416156771</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>0.6357033206707108</v>
+        <v>0.6357033206707107</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>1.682192593391483</v>
+        <v>1.682192593391482</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>664</v>
       </c>
       <c r="B664">
-        <v>9.5297616570471</v>
+        <v>9.529761657047098</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>668</v>
       </c>
       <c r="B668">
-        <v>0.6470803383915441</v>
+        <v>0.647080338391544</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>672</v>
       </c>
       <c r="B672">
-        <v>0.5862622364485418</v>
+        <v>0.5862622364485417</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>0.8089464037545917</v>
+        <v>0.8089464037545916</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>7.801023521295422</v>
+        <v>7.801023521295421</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>0.4866503211179371</v>
+        <v>0.486650321117937</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>0.5592440173943524</v>
+        <v>0.5592440173943523</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>0.5433361214158146</v>
+        <v>0.5433361214158144</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>0.302762897909876</v>
+        <v>0.3027628979098759</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>0.7222003070212202</v>
+        <v>0.7222003070212201</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>792</v>
       </c>
       <c r="B792">
-        <v>0.8120470953436288</v>
+        <v>0.8120470953436287</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>0.4406791979935185</v>
+        <v>0.4406791979935184</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>0.8890485800415107</v>
+        <v>0.8890485800415105</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>836</v>
       </c>
       <c r="B836">
-        <v>0.2294661242117122</v>
+        <v>0.2294661242117121</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>864</v>
       </c>
       <c r="B864">
-        <v>0.5555308073345131</v>
+        <v>0.555530807334513</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>0.2905972260240049</v>
+        <v>0.2905972260240048</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>888</v>
       </c>
       <c r="B888">
-        <v>0.8286144011591546</v>
+        <v>0.8286144011591545</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>0.4173566047368486</v>
+        <v>0.4173566047368485</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>1.890988124175372</v>
+        <v>1.890988124175371</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>0.8799164864768232</v>
+        <v>0.8799164864768231</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>939</v>
       </c>
       <c r="B939">
-        <v>0.6217707234927504</v>
+        <v>0.6217707234927503</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>0.7653784631471962</v>
+        <v>0.765378463147196</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>968</v>
       </c>
       <c r="B968">
-        <v>0.7067027104968082</v>
+        <v>0.7067027104968081</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>6.397682159769436</v>
+        <v>6.397682159769435</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8455,7 +8455,7 @@
         <v>1014</v>
       </c>
       <c r="B1014">
-        <v>0.9281999400962798</v>
+        <v>0.9281999400962796</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>0.3450559794990948</v>
+        <v>0.3450559794990947</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>4.656635040393982</v>
+        <v>4.656635040393981</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>1.986245003871469</v>
+        <v>1.986245003871468</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>1058</v>
       </c>
       <c r="B1058">
-        <v>0.8494751976910693</v>
+        <v>0.8494751976910692</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>1112</v>
       </c>
       <c r="B1112">
-        <v>0.8737502718233885</v>
+        <v>0.8737502718233884</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>1129</v>
       </c>
       <c r="B1129">
-        <v>0.5897849503332512</v>
+        <v>0.5897849503332511</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>0.7789710979203094</v>
+        <v>0.7789710979203093</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>0.7137891682116396</v>
+        <v>0.7137891682116395</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>0.3560695891319881</v>
+        <v>0.356069589131988</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>0.1069984777890252</v>
+        <v>0.1069984777890251</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>1.372264108586337</v>
+        <v>1.372264108586336</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10407,7 +10407,7 @@
         <v>1258</v>
       </c>
       <c r="B1258">
-        <v>0.6661768472707175</v>
+        <v>0.6661768472707174</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -10599,7 +10599,7 @@
         <v>1282</v>
       </c>
       <c r="B1282">
-        <v>0.4447147861958852</v>
+        <v>0.4447147861958851</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>1304</v>
       </c>
       <c r="B1304">
-        <v>1.312621221508367</v>
+        <v>1.312621221508366</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>2.056965976210838</v>
+        <v>2.056965976210837</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>1335</v>
       </c>
       <c r="B1335">
-        <v>32.80988892021493</v>
+        <v>32.80988892021492</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>1376</v>
       </c>
       <c r="B1376">
-        <v>1.944080873539261</v>
+        <v>1.94408087353926</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11703,7 +11703,7 @@
         <v>1420</v>
       </c>
       <c r="B1420">
-        <v>1.110308422099667</v>
+        <v>1.110308422099666</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -11839,7 +11839,7 @@
         <v>1437</v>
       </c>
       <c r="B1437">
-        <v>2.496757168957213</v>
+        <v>2.496757168957212</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>0.6835881976775879</v>
+        <v>0.6835881976775878</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11903,7 +11903,7 @@
         <v>1445</v>
       </c>
       <c r="B1445">
-        <v>0.6445863038525361</v>
+        <v>0.644586303852536</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -11935,7 +11935,7 @@
         <v>1449</v>
       </c>
       <c r="B1449">
-        <v>0.2060430075887815</v>
+        <v>0.2060430075887814</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1460</v>
       </c>
       <c r="B1460">
-        <v>1.514614573484926</v>
+        <v>1.514614573484925</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12047,7 +12047,7 @@
         <v>1463</v>
       </c>
       <c r="B1463">
-        <v>1.864216084793658</v>
+        <v>1.864216084793657</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>0.4559276841350683</v>
+        <v>0.4559276841350682</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12103,7 +12103,7 @@
         <v>1470</v>
       </c>
       <c r="B1470">
-        <v>0.4171543857201723</v>
+        <v>0.4171543857201722</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>1.49859237980131</v>
+        <v>1.498592379801309</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>0.7387851970990658</v>
+        <v>0.7387851970990656</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>9.002585472703071</v>
+        <v>9.002585472703069</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12359,7 +12359,7 @@
         <v>1502</v>
       </c>
       <c r="B1502">
-        <v>6.548496516264565</v>
+        <v>6.548496516264564</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>7.381931936009698</v>
+        <v>7.381931936009697</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12479,7 +12479,7 @@
         <v>1517</v>
       </c>
       <c r="B1517">
-        <v>0.7298348075783483</v>
+        <v>0.7298348075783482</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -12527,7 +12527,7 @@
         <v>1523</v>
       </c>
       <c r="B1523">
-        <v>7.34233803868655</v>
+        <v>7.342338038686549</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
@@ -12623,7 +12623,7 @@
         <v>1535</v>
       </c>
       <c r="B1535">
-        <v>2.296718600808525</v>
+        <v>2.296718600808524</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -12655,7 +12655,7 @@
         <v>1539</v>
       </c>
       <c r="B1539">
-        <v>0.9345390666625248</v>
+        <v>0.9345390666625246</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
@@ -12679,7 +12679,7 @@
         <v>1542</v>
       </c>
       <c r="B1542">
-        <v>0.8840517188323348</v>
+        <v>0.8840517188323347</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>4.950819749002241</v>
+        <v>4.95081974900224</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>6.255015178149093</v>
+        <v>6.255015178149092</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12783,7 +12783,7 @@
         <v>1555</v>
       </c>
       <c r="B1555">
-        <v>20.77662652961103</v>
+        <v>20.77662652961102</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
@@ -12895,7 +12895,7 @@
         <v>1569</v>
       </c>
       <c r="B1569">
-        <v>8.522300654544859</v>
+        <v>8.522300654544857</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -12919,7 +12919,7 @@
         <v>1572</v>
       </c>
       <c r="B1572">
-        <v>17.41627400032004</v>
+        <v>17.41627400032003</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -12991,7 +12991,7 @@
         <v>1581</v>
       </c>
       <c r="B1581">
-        <v>49.38276308547535</v>
+        <v>49.38276308547534</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>0.4648165287376669</v>
+        <v>0.4648165287376668</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13159,7 +13159,7 @@
         <v>1602</v>
       </c>
       <c r="B1602">
-        <v>0.2287102940030046</v>
+        <v>0.2287102940030045</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13239,7 +13239,7 @@
         <v>1612</v>
       </c>
       <c r="B1612">
-        <v>0.4925967324923758</v>
+        <v>0.4925967324923757</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>0.7252834143479375</v>
+        <v>0.7252834143479374</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>0.8729384650462966</v>
+        <v>0.8729384650462965</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>1.864216084793658</v>
+        <v>1.864216084793657</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13567,7 +13567,7 @@
         <v>1653</v>
       </c>
       <c r="B1653">
-        <v>1.909721224966605</v>
+        <v>1.909721224966604</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
@@ -13607,7 +13607,7 @@
         <v>1658</v>
       </c>
       <c r="B1658">
-        <v>0.7409802991786392</v>
+        <v>0.7409802991786391</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
@@ -13879,7 +13879,7 @@
         <v>1692</v>
       </c>
       <c r="B1692">
-        <v>6.233620992326815</v>
+        <v>6.233620992326814</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>1.294802502357757</v>
+        <v>1.294802502357756</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>8.740609271243695</v>
+        <v>8.740609271243693</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14247,7 +14247,7 @@
         <v>1738</v>
       </c>
       <c r="B1738">
-        <v>8.068187080139104</v>
+        <v>8.068187080139102</v>
       </c>
     </row>
     <row r="1739" spans="1:2">
@@ -14271,7 +14271,7 @@
         <v>1741</v>
       </c>
       <c r="B1741">
-        <v>2.425030962955235</v>
+        <v>2.425030962955234</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14567,7 +14567,7 @@
         <v>1778</v>
       </c>
       <c r="B1778">
-        <v>1.022955668316266</v>
+        <v>1.022955668316265</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>0.7848794100597221</v>
+        <v>0.7848794100597219</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14775,7 +14775,7 @@
         <v>1804</v>
       </c>
       <c r="B1804">
-        <v>0.9004842119700763</v>
+        <v>0.9004842119700762</v>
       </c>
     </row>
     <row r="1805" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>0.8115254288948116</v>
+        <v>0.8115254288948115</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>0.4161139835329245</v>
+        <v>0.4161139835329244</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15295,7 +15295,7 @@
         <v>1869</v>
       </c>
       <c r="B1869">
-        <v>28.55382337546328</v>
+        <v>28.55382337546327</v>
       </c>
     </row>
     <row r="1870" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>5.550150023064692</v>
+        <v>5.550150023064691</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15575,7 +15575,7 @@
         <v>1904</v>
       </c>
       <c r="B1904">
-        <v>0.5972055090321564</v>
+        <v>0.5972055090321563</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>3.43227216217848</v>
+        <v>3.432272162178479</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15647,7 +15647,7 @@
         <v>1913</v>
       </c>
       <c r="B1913">
-        <v>8.793039680060209</v>
+        <v>8.793039680060208</v>
       </c>
     </row>
     <row r="1914" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>34.57564192814954</v>
+        <v>34.57564192814953</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>1.423451896198928</v>
+        <v>1.423451896198927</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>28.74434885769702</v>
+        <v>28.74434885769701</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15951,7 +15951,7 @@
         <v>1951</v>
       </c>
       <c r="B1951">
-        <v>1.623821634621303</v>
+        <v>1.623821634621302</v>
       </c>
     </row>
     <row r="1952" spans="1:2">
@@ -16271,7 +16271,7 @@
         <v>1991</v>
       </c>
       <c r="B1991">
-        <v>1.490494827003097</v>
+        <v>1.490494827003096</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -16295,7 +16295,7 @@
         <v>1994</v>
       </c>
       <c r="B1994">
-        <v>0.8989690347001972</v>
+        <v>0.8989690347001971</v>
       </c>
     </row>
     <row r="1995" spans="1:2">
@@ -16319,7 +16319,7 @@
         <v>1997</v>
       </c>
       <c r="B1997">
-        <v>0.8055262647334139</v>
+        <v>0.8055262647334138</v>
       </c>
     </row>
     <row r="1998" spans="1:2">
@@ -16359,7 +16359,7 @@
         <v>2002</v>
       </c>
       <c r="B2002">
-        <v>0.4467164613899422</v>
+        <v>0.4467164613899421</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16487,7 +16487,7 @@
         <v>2018</v>
       </c>
       <c r="B2018">
-        <v>0.9118553682701366</v>
+        <v>0.9118553682701364</v>
       </c>
     </row>
     <row r="2019" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>1.217651551430158</v>
+        <v>1.217651551430157</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16679,7 +16679,7 @@
         <v>2042</v>
       </c>
       <c r="B2042">
-        <v>0.881463901560955</v>
+        <v>0.8814639015609549</v>
       </c>
     </row>
     <row r="2043" spans="1:2">
@@ -16879,7 +16879,7 @@
         <v>2067</v>
       </c>
       <c r="B2067">
-        <v>0.8005762948904237</v>
+        <v>0.8005762948904236</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -17015,7 +17015,7 @@
         <v>2084</v>
       </c>
       <c r="B2084">
-        <v>3.381160573035941</v>
+        <v>3.38116057303594</v>
       </c>
     </row>
     <row r="2085" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>0.9731687602684768</v>
+        <v>0.9731687602684764</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17391,7 +17391,7 @@
         <v>2131</v>
       </c>
       <c r="B2131">
-        <v>59.77213140602004</v>
+        <v>59.77213140602003</v>
       </c>
     </row>
     <row r="2132" spans="1:2">
@@ -17519,7 +17519,7 @@
         <v>2147</v>
       </c>
       <c r="B2147">
-        <v>0.7743962590068058</v>
+        <v>0.7743962590068056</v>
       </c>
     </row>
     <row r="2148" spans="1:2">
@@ -17535,7 +17535,7 @@
         <v>2149</v>
       </c>
       <c r="B2149">
-        <v>0.5871619645372321</v>
+        <v>0.587161964537232</v>
       </c>
     </row>
     <row r="2150" spans="1:2">
@@ -17543,7 +17543,7 @@
         <v>2150</v>
       </c>
       <c r="B2150">
-        <v>0.6011004231359657</v>
+        <v>0.6011004231359656</v>
       </c>
     </row>
     <row r="2151" spans="1:2">
@@ -17551,7 +17551,7 @@
         <v>2151</v>
       </c>
       <c r="B2151">
-        <v>0.8361961489293236</v>
+        <v>0.8361961489293235</v>
       </c>
     </row>
     <row r="2152" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>0.8879466329361441</v>
+        <v>0.887946632936144</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17631,7 +17631,7 @@
         <v>2161</v>
       </c>
       <c r="B2161">
-        <v>1.561605583823886</v>
+        <v>1.561605583823885</v>
       </c>
     </row>
     <row r="2162" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>3.336672389367149</v>
+        <v>3.336672389367148</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -17767,7 +17767,7 @@
         <v>2178</v>
       </c>
       <c r="B2178">
-        <v>55.29341979319736</v>
+        <v>55.29341979319735</v>
       </c>
     </row>
     <row r="2179" spans="1:2">
@@ -17863,7 +17863,7 @@
         <v>2190</v>
       </c>
       <c r="B2190">
-        <v>1.641813265684723</v>
+        <v>1.641813265684722</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
@@ -18015,7 +18015,7 @@
         <v>2209</v>
       </c>
       <c r="B2209">
-        <v>5.122881755800316</v>
+        <v>5.122881755800315</v>
       </c>
     </row>
     <row r="2210" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>32.89165574000145</v>
+        <v>32.89165574000144</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18191,7 +18191,7 @@
         <v>2231</v>
       </c>
       <c r="B2231">
-        <v>20.89294642485571</v>
+        <v>20.8929464248557</v>
       </c>
     </row>
     <row r="2232" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>6.519101491086831</v>
+        <v>6.51910149108683</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18391,7 +18391,7 @@
         <v>2256</v>
       </c>
       <c r="B2256">
-        <v>28.11269284807022</v>
+        <v>28.11269284807021</v>
       </c>
     </row>
     <row r="2257" spans="1:2">
@@ -18455,7 +18455,7 @@
         <v>2264</v>
       </c>
       <c r="B2264">
-        <v>3.819858610808109</v>
+        <v>3.819858610808108</v>
       </c>
     </row>
     <row r="2265" spans="1:2">
@@ -18535,7 +18535,7 @@
         <v>2274</v>
       </c>
       <c r="B2274">
-        <v>69.59440726675503</v>
+        <v>69.59440726675501</v>
       </c>
     </row>
     <row r="2275" spans="1:2">
@@ -18607,7 +18607,7 @@
         <v>2283</v>
       </c>
       <c r="B2283">
-        <v>2.436176454555526</v>
+        <v>2.436176454555525</v>
       </c>
     </row>
     <row r="2284" spans="1:2">
@@ -18655,7 +18655,7 @@
         <v>2289</v>
       </c>
       <c r="B2289">
-        <v>2.399838576471906</v>
+        <v>2.399838576471905</v>
       </c>
     </row>
     <row r="2290" spans="1:2">
@@ -18727,7 +18727,7 @@
         <v>2298</v>
       </c>
       <c r="B2298">
-        <v>53.22433826024826</v>
+        <v>53.22433826024825</v>
       </c>
     </row>
     <row r="2299" spans="1:2">
@@ -18743,7 +18743,7 @@
         <v>2300</v>
       </c>
       <c r="B2300">
-        <v>55.40273529061804</v>
+        <v>55.40273529061803</v>
       </c>
     </row>
     <row r="2301" spans="1:2">
@@ -18767,7 +18767,7 @@
         <v>2303</v>
       </c>
       <c r="B2303">
-        <v>30.50136834867952</v>
+        <v>30.50136834867951</v>
       </c>
     </row>
     <row r="2304" spans="1:2">
@@ -18895,7 +18895,7 @@
         <v>2319</v>
       </c>
       <c r="B2319">
-        <v>57.11720086678691</v>
+        <v>57.1172008667869</v>
       </c>
     </row>
     <row r="2320" spans="1:2">
@@ -18903,7 +18903,7 @@
         <v>2320</v>
       </c>
       <c r="B2320">
-        <v>62.47776323494158</v>
+        <v>62.47776323494157</v>
       </c>
     </row>
     <row r="2321" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>68.74596660983043</v>
+        <v>68.74596660983042</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -18951,7 +18951,7 @@
         <v>2326</v>
       </c>
       <c r="B2326">
-        <v>45.25046144035038</v>
+        <v>45.25046144035037</v>
       </c>
     </row>
     <row r="2327" spans="1:2">
@@ -18999,7 +18999,7 @@
         <v>2332</v>
       </c>
       <c r="B2332">
-        <v>2.24209015920205</v>
+        <v>2.242090159202049</v>
       </c>
     </row>
     <row r="2333" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>2.47728845985894</v>
+        <v>2.477288459858939</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19239,7 +19239,7 @@
         <v>2362</v>
       </c>
       <c r="B2362">
-        <v>4.994223569827986</v>
+        <v>4.994223569827985</v>
       </c>
     </row>
     <row r="2363" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>3.921349111496533</v>
+        <v>3.921349111496532</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>21.62685491987145</v>
+        <v>21.62685491987144</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19327,7 +19327,7 @@
         <v>2373</v>
       </c>
       <c r="B2373">
-        <v>5.172469375541816</v>
+        <v>5.172469375541815</v>
       </c>
     </row>
     <row r="2374" spans="1:2">
@@ -19527,7 +19527,7 @@
         <v>2398</v>
       </c>
       <c r="B2398">
-        <v>5.17501909357817</v>
+        <v>5.175019093578169</v>
       </c>
     </row>
     <row r="2399" spans="1:2">
@@ -19647,7 +19647,7 @@
         <v>2413</v>
       </c>
       <c r="B2413">
-        <v>0.8523590167114968</v>
+        <v>0.8523590167114967</v>
       </c>
     </row>
     <row r="2414" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>29.71769639129908</v>
+        <v>29.71769639129907</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19887,7 +19887,7 @@
         <v>2443</v>
       </c>
       <c r="B2443">
-        <v>68.67973255509297</v>
+        <v>68.67973255509295</v>
       </c>
     </row>
     <row r="2444" spans="1:2">
@@ -19895,7 +19895,7 @@
         <v>2444</v>
       </c>
       <c r="B2444">
-        <v>58.0597173271218</v>
+        <v>58.05971732712179</v>
       </c>
     </row>
     <row r="2445" spans="1:2">
@@ -19903,7 +19903,7 @@
         <v>2445</v>
       </c>
       <c r="B2445">
-        <v>51.96325358088849</v>
+        <v>51.96325358088848</v>
       </c>
     </row>
     <row r="2446" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>6.144439475262168</v>
+        <v>6.144439475262167</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -20055,7 +20055,7 @@
         <v>2464</v>
       </c>
       <c r="B2464">
-        <v>39.31665212057412</v>
+        <v>39.31665212057411</v>
       </c>
     </row>
     <row r="2465" spans="1:2">
@@ -20103,7 +20103,7 @@
         <v>2470</v>
       </c>
       <c r="B2470">
-        <v>24.01898865873695</v>
+        <v>24.01898865873694</v>
       </c>
     </row>
     <row r="2471" spans="1:2">
@@ -20111,7 +20111,7 @@
         <v>2471</v>
       </c>
       <c r="B2471">
-        <v>9.316435248005506</v>
+        <v>9.316435248005504</v>
       </c>
     </row>
     <row r="2472" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>1.568208474324926</v>
+        <v>1.568208474324925</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>33.46724725993233</v>
+        <v>33.46724725993232</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>44.76894572382979</v>
+        <v>44.76894572382978</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20655,7 +20655,7 @@
         <v>2539</v>
       </c>
       <c r="B2539">
-        <v>81.03355604778466</v>
+        <v>81.03355604778464</v>
       </c>
     </row>
     <row r="2540" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>3.76086341072558</v>
+        <v>3.760863410725579</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20903,7 +20903,7 @@
         <v>2570</v>
       </c>
       <c r="B2570">
-        <v>1.423563263193619</v>
+        <v>1.423563263193618</v>
       </c>
     </row>
     <row r="2571" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>1.606366323558633</v>
+        <v>1.606366323558632</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21287,7 +21287,7 @@
         <v>2618</v>
       </c>
       <c r="B2618">
-        <v>1.648750257169837</v>
+        <v>1.648750257169836</v>
       </c>
     </row>
     <row r="2619" spans="1:2">
@@ -21359,7 +21359,7 @@
         <v>2627</v>
       </c>
       <c r="B2627">
-        <v>14.09182267326507</v>
+        <v>14.09182267326506</v>
       </c>
     </row>
     <row r="2628" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>1.577548648327063</v>
+        <v>1.577548648327062</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21495,7 +21495,7 @@
         <v>2644</v>
       </c>
       <c r="B2644">
-        <v>1.447726970331247</v>
+        <v>1.447726970331246</v>
       </c>
     </row>
     <row r="2645" spans="1:2">
@@ -21519,7 +21519,7 @@
         <v>2647</v>
       </c>
       <c r="B2647">
-        <v>1.593743753923489</v>
+        <v>1.593743753923488</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -21687,7 +21687,7 @@
         <v>2668</v>
       </c>
       <c r="B2668">
-        <v>1.441950540159232</v>
+        <v>1.441950540159231</v>
       </c>
     </row>
     <row r="2669" spans="1:2">
@@ -21799,7 +21799,7 @@
         <v>2682</v>
       </c>
       <c r="B2682">
-        <v>78.82731726874205</v>
+        <v>78.82731726874204</v>
       </c>
     </row>
     <row r="2683" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>0.787821843287882</v>
+        <v>0.7878218432878819</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -21959,7 +21959,7 @@
         <v>2702</v>
       </c>
       <c r="B2702">
-        <v>0.8654534307188858</v>
+        <v>0.8654534307188857</v>
       </c>
     </row>
     <row r="2703" spans="1:2">
@@ -22047,7 +22047,7 @@
         <v>2713</v>
       </c>
       <c r="B2713">
-        <v>1.756289744096231</v>
+        <v>1.75628974409623</v>
       </c>
     </row>
     <row r="2714" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>49.18113021087634</v>
+        <v>49.18113021087633</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22207,7 +22207,7 @@
         <v>2733</v>
       </c>
       <c r="B2733">
-        <v>25.99721816970103</v>
+        <v>25.99721816970102</v>
       </c>
     </row>
     <row r="2734" spans="1:2">
@@ -22303,7 +22303,7 @@
         <v>2745</v>
       </c>
       <c r="B2745">
-        <v>4.838720076714276</v>
+        <v>4.838720076714275</v>
       </c>
     </row>
     <row r="2746" spans="1:2">
@@ -22423,7 +22423,7 @@
         <v>2760</v>
       </c>
       <c r="B2760">
-        <v>7.524012775552718</v>
+        <v>7.524012775552717</v>
       </c>
     </row>
     <row r="2761" spans="1:2">
@@ -22455,7 +22455,7 @@
         <v>2764</v>
       </c>
       <c r="B2764">
-        <v>1.916576156560894</v>
+        <v>1.916576156560893</v>
       </c>
     </row>
     <row r="2765" spans="1:2">
@@ -22519,7 +22519,7 @@
         <v>2772</v>
       </c>
       <c r="B2772">
-        <v>22.20426348024204</v>
+        <v>22.20426348024203</v>
       </c>
     </row>
     <row r="2773" spans="1:2">
@@ -22543,7 +22543,7 @@
         <v>2775</v>
       </c>
       <c r="B2775">
-        <v>44.03011363536454</v>
+        <v>44.03011363536453</v>
       </c>
     </row>
     <row r="2776" spans="1:2">
@@ -22591,7 +22591,7 @@
         <v>2781</v>
       </c>
       <c r="B2781">
-        <v>50.4574545842465</v>
+        <v>50.45745458424649</v>
       </c>
     </row>
     <row r="2782" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>20.93251101507499</v>
+        <v>20.93251101507498</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22623,7 +22623,7 @@
         <v>2785</v>
       </c>
       <c r="B2785">
-        <v>5.572247579379757</v>
+        <v>5.572247579379756</v>
       </c>
     </row>
     <row r="2786" spans="1:2">
@@ -22759,7 +22759,7 @@
         <v>2802</v>
       </c>
       <c r="B2802">
-        <v>58.04477070415007</v>
+        <v>58.04477070415006</v>
       </c>
     </row>
     <row r="2803" spans="1:2">
@@ -22767,7 +22767,7 @@
         <v>2803</v>
       </c>
       <c r="B2803">
-        <v>45.1812966752263</v>
+        <v>45.18129667522629</v>
       </c>
     </row>
     <row r="2804" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>10.10130879664446</v>
+        <v>10.10130879664445</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22919,7 +22919,7 @@
         <v>2822</v>
       </c>
       <c r="B2822">
-        <v>5.583384278848888</v>
+        <v>5.583384278848887</v>
       </c>
     </row>
     <row r="2823" spans="1:2">
@@ -22935,7 +22935,7 @@
         <v>2824</v>
       </c>
       <c r="B2824">
-        <v>5.675203435261487</v>
+        <v>5.675203435261486</v>
       </c>
     </row>
     <row r="2825" spans="1:2">
@@ -22967,7 +22967,7 @@
         <v>2828</v>
       </c>
       <c r="B2828">
-        <v>28.17236211154167</v>
+        <v>28.17236211154166</v>
       </c>
     </row>
     <row r="2829" spans="1:2">
@@ -23023,7 +23023,7 @@
         <v>2835</v>
       </c>
       <c r="B2835">
-        <v>1.745932613589939</v>
+        <v>1.745932613589938</v>
       </c>
     </row>
     <row r="2836" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>128.5060821032654</v>
+        <v>128.5060821032653</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>87.92453537982887</v>
+        <v>87.92453537982885</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23199,7 +23199,7 @@
         <v>2857</v>
       </c>
       <c r="B2857">
-        <v>6.922396547388709</v>
+        <v>6.922396547388708</v>
       </c>
     </row>
     <row r="2858" spans="1:2">
@@ -23327,7 +23327,7 @@
         <v>2873</v>
       </c>
       <c r="B2873">
-        <v>65.00579401443434</v>
+        <v>65.00579401443433</v>
       </c>
     </row>
     <row r="2874" spans="1:2">
@@ -23351,7 +23351,7 @@
         <v>2876</v>
       </c>
       <c r="B2876">
-        <v>80.25398708494548</v>
+        <v>80.25398708494546</v>
       </c>
     </row>
     <row r="2877" spans="1:2">
@@ -23487,7 +23487,7 @@
         <v>2893</v>
       </c>
       <c r="B2893">
-        <v>32.5144733132443</v>
+        <v>32.51447331324429</v>
       </c>
     </row>
     <row r="2894" spans="1:2">
@@ -23567,7 +23567,7 @@
         <v>2903</v>
       </c>
       <c r="B2903">
-        <v>47.28056452515752</v>
+        <v>47.28056452515751</v>
       </c>
     </row>
     <row r="2904" spans="1:2">
@@ -23631,7 +23631,7 @@
         <v>2911</v>
       </c>
       <c r="B2911">
-        <v>5.871238653022061</v>
+        <v>5.87123865302206</v>
       </c>
     </row>
     <row r="2912" spans="1:2">
@@ -23655,7 +23655,7 @@
         <v>2914</v>
       </c>
       <c r="B2914">
-        <v>7.607362178948005</v>
+        <v>7.607362178948004</v>
       </c>
     </row>
     <row r="2915" spans="1:2">
@@ -23727,7 +23727,7 @@
         <v>2923</v>
       </c>
       <c r="B2923">
-        <v>126.5120267562136</v>
+        <v>126.5120267562135</v>
       </c>
     </row>
     <row r="2924" spans="1:2">
@@ -23871,7 +23871,7 @@
         <v>2941</v>
       </c>
       <c r="B2941">
-        <v>27.09022660838852</v>
+        <v>27.09022660838851</v>
       </c>
     </row>
     <row r="2942" spans="1:2">
@@ -23911,7 +23911,7 @@
         <v>2946</v>
       </c>
       <c r="B2946">
-        <v>94.42660944356948</v>
+        <v>94.42660944356946</v>
       </c>
     </row>
     <row r="2947" spans="1:2">
@@ -23967,7 +23967,7 @@
         <v>2953</v>
       </c>
       <c r="B2953">
-        <v>5.621630049394193</v>
+        <v>5.621630049394192</v>
       </c>
     </row>
     <row r="2954" spans="1:2">
@@ -23975,7 +23975,7 @@
         <v>2954</v>
       </c>
       <c r="B2954">
-        <v>2.773316585300378</v>
+        <v>2.773316585300377</v>
       </c>
     </row>
     <row r="2955" spans="1:2">
@@ -24143,7 +24143,7 @@
         <v>2975</v>
       </c>
       <c r="B2975">
-        <v>15.16334900481868</v>
+        <v>15.16334900481867</v>
       </c>
     </row>
     <row r="2976" spans="1:2">
@@ -24151,7 +24151,7 @@
         <v>2976</v>
       </c>
       <c r="B2976">
-        <v>7.683502034792222</v>
+        <v>7.683502034792221</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -24263,7 +24263,7 @@
         <v>2990</v>
       </c>
       <c r="B2990">
-        <v>42.90911691248489</v>
+        <v>42.90911691248488</v>
       </c>
     </row>
     <row r="2991" spans="1:2">
@@ -24271,7 +24271,7 @@
         <v>2991</v>
       </c>
       <c r="B2991">
-        <v>58.09781656214777</v>
+        <v>58.09781656214776</v>
       </c>
     </row>
     <row r="2992" spans="1:2">
@@ -24319,7 +24319,7 @@
         <v>2997</v>
       </c>
       <c r="B2997">
-        <v>63.50702872272022</v>
+        <v>63.50702872272021</v>
       </c>
     </row>
     <row r="2998" spans="1:2">
@@ -24359,7 +24359,7 @@
         <v>3002</v>
       </c>
       <c r="B3002">
-        <v>9.261806806399033</v>
+        <v>9.261806806399029</v>
       </c>
     </row>
     <row r="3003" spans="1:2">
@@ -24503,7 +24503,7 @@
         <v>3020</v>
       </c>
       <c r="B3020">
-        <v>76.23832771320772</v>
+        <v>76.23832771320771</v>
       </c>
     </row>
     <row r="3021" spans="1:2">
@@ -24591,7 +24591,7 @@
         <v>3031</v>
       </c>
       <c r="B3031">
-        <v>8.74708614119811</v>
+        <v>8.747086141198109</v>
       </c>
     </row>
     <row r="3032" spans="1:2">
@@ -24639,7 +24639,7 @@
         <v>3037</v>
       </c>
       <c r="B3037">
-        <v>24.26721982848311</v>
+        <v>24.2672198284831</v>
       </c>
     </row>
     <row r="3038" spans="1:2">
@@ -24687,7 +24687,7 @@
         <v>3043</v>
       </c>
       <c r="B3043">
-        <v>123.6938556484461</v>
+        <v>123.693855648446</v>
       </c>
     </row>
     <row r="3044" spans="1:2">
@@ -24735,7 +24735,7 @@
         <v>3049</v>
       </c>
       <c r="B3049">
-        <v>44.65933715537045</v>
+        <v>44.65933715537044</v>
       </c>
     </row>
     <row r="3050" spans="1:2">
@@ -24743,7 +24743,7 @@
         <v>3050</v>
       </c>
       <c r="B3050">
-        <v>33.67386234218858</v>
+        <v>33.67386234218857</v>
       </c>
     </row>
     <row r="3051" spans="1:2">
@@ -24807,7 +24807,7 @@
         <v>3058</v>
       </c>
       <c r="B3058">
-        <v>48.20022144447682</v>
+        <v>48.20022144447681</v>
       </c>
     </row>
     <row r="3059" spans="1:2">
@@ -24839,7 +24839,7 @@
         <v>3062</v>
       </c>
       <c r="B3062">
-        <v>75.86935127553309</v>
+        <v>75.86935127553308</v>
       </c>
     </row>
     <row r="3063" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>16.50828130833946</v>
+        <v>16.50828130833945</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25023,7 +25023,7 @@
         <v>3085</v>
       </c>
       <c r="B3085">
-        <v>4.76559885256827</v>
+        <v>4.765598852568269</v>
       </c>
     </row>
     <row r="3086" spans="1:2">
@@ -25159,7 +25159,7 @@
         <v>3102</v>
       </c>
       <c r="B3102">
-        <v>20.71531606832307</v>
+        <v>20.71531606832306</v>
       </c>
     </row>
     <row r="3103" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>43.00846799459109</v>
+        <v>43.00846799459108</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>43.29860832286582</v>
+        <v>43.29860832286581</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25231,7 +25231,7 @@
         <v>3111</v>
       </c>
       <c r="B3111">
-        <v>62.02174469878453</v>
+        <v>62.02174469878452</v>
       </c>
     </row>
     <row r="3112" spans="1:2">
@@ -25399,7 +25399,7 @@
         <v>3132</v>
       </c>
       <c r="B3132">
-        <v>31.09600948612339</v>
+        <v>31.09600948612338</v>
       </c>
     </row>
     <row r="3133" spans="1:2">
@@ -25479,7 +25479,7 @@
         <v>3142</v>
       </c>
       <c r="B3142">
-        <v>68.79696097055751</v>
+        <v>68.79696097055749</v>
       </c>
     </row>
     <row r="3143" spans="1:2">
@@ -25535,7 +25535,7 @@
         <v>3149</v>
       </c>
       <c r="B3149">
-        <v>9.094902849881397</v>
+        <v>9.094902849881391</v>
       </c>
     </row>
     <row r="3150" spans="1:2">
@@ -25551,7 +25551,7 @@
         <v>3151</v>
       </c>
       <c r="B3151">
-        <v>3.707377946169885</v>
+        <v>3.707377946169884</v>
       </c>
     </row>
     <row r="3152" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>72.05766934670363</v>
+        <v>72.05766934670362</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25623,7 +25623,7 @@
         <v>3160</v>
       </c>
       <c r="B3160">
-        <v>109.142292436833</v>
+        <v>109.1422924368329</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -25631,7 +25631,7 @@
         <v>3161</v>
       </c>
       <c r="B3161">
-        <v>78.73324146533176</v>
+        <v>78.73324146533174</v>
       </c>
     </row>
     <row r="3162" spans="1:2">
@@ -25839,7 +25839,7 @@
         <v>3187</v>
       </c>
       <c r="B3187">
-        <v>114.2212135368341</v>
+        <v>114.221213536834</v>
       </c>
     </row>
     <row r="3188" spans="1:2">
@@ -25855,7 +25855,7 @@
         <v>3189</v>
       </c>
       <c r="B3189">
-        <v>74.05055240960078</v>
+        <v>74.05055240960077</v>
       </c>
     </row>
     <row r="3190" spans="1:2">
@@ -25879,7 +25879,7 @@
         <v>3192</v>
       </c>
       <c r="B3192">
-        <v>33.01386636312323</v>
+        <v>33.01386636312322</v>
       </c>
     </row>
     <row r="3193" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>7.866114598982106</v>
+        <v>7.866114598982105</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -25927,7 +25927,7 @@
         <v>3198</v>
       </c>
       <c r="B3198">
-        <v>9.322882810856056</v>
+        <v>9.322882810856054</v>
       </c>
     </row>
     <row r="3199" spans="1:2">
@@ -25935,7 +25935,7 @@
         <v>3199</v>
       </c>
       <c r="B3199">
-        <v>6.304895868929254</v>
+        <v>6.304895868929253</v>
       </c>
     </row>
     <row r="3200" spans="1:2">
@@ -25967,7 +25967,7 @@
         <v>3203</v>
       </c>
       <c r="B3203">
-        <v>19.0228308200538</v>
+        <v>19.02283082005379</v>
       </c>
     </row>
     <row r="3204" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>17.31830035209555</v>
+        <v>17.31830035209554</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -26031,7 +26031,7 @@
         <v>3211</v>
       </c>
       <c r="B3211">
-        <v>74.14990349170698</v>
+        <v>74.14990349170697</v>
       </c>
     </row>
     <row r="3212" spans="1:2">
@@ -26095,7 +26095,7 @@
         <v>3219</v>
       </c>
       <c r="B3219">
-        <v>4.280185291233484</v>
+        <v>4.280185291233483</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>6.004263597470446</v>
+        <v>6.004263597470445</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26351,7 +26351,7 @@
         <v>3251</v>
       </c>
       <c r="B3251">
-        <v>33.69408424385621</v>
+        <v>33.6940842438562</v>
       </c>
     </row>
     <row r="3252" spans="1:2">
@@ -26383,7 +26383,7 @@
         <v>3255</v>
       </c>
       <c r="B3255">
-        <v>80.80115071412621</v>
+        <v>80.80115071412619</v>
       </c>
     </row>
     <row r="3256" spans="1:2">
@@ -26471,7 +26471,7 @@
         <v>3266</v>
       </c>
       <c r="B3266">
-        <v>43.61483197358141</v>
+        <v>43.6148319735814</v>
       </c>
     </row>
     <row r="3267" spans="1:2">
@@ -26495,7 +26495,7 @@
         <v>3269</v>
       </c>
       <c r="B3269">
-        <v>33.29931755477938</v>
+        <v>33.29931755477937</v>
       </c>
     </row>
     <row r="3270" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>56.97711291030679</v>
+        <v>56.97711291030678</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26591,7 +26591,7 @@
         <v>3281</v>
       </c>
       <c r="B3281">
-        <v>63.9325678708565</v>
+        <v>63.93256787085649</v>
       </c>
     </row>
     <row r="3282" spans="1:2">
@@ -26639,7 +26639,7 @@
         <v>3287</v>
       </c>
       <c r="B3287">
-        <v>70.31037981420469</v>
+        <v>70.31037981420468</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -26655,7 +26655,7 @@
         <v>3289</v>
       </c>
       <c r="B3289">
-        <v>49.43375744620242</v>
+        <v>49.43375744620241</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -26671,7 +26671,7 @@
         <v>3291</v>
       </c>
       <c r="B3291">
-        <v>31.95089770589853</v>
+        <v>31.95089770589852</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>4.04745757943251</v>
+        <v>4.047457579432509</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>3.111476603259771</v>
+        <v>3.11147660325977</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26783,7 +26783,7 @@
         <v>3305</v>
       </c>
       <c r="B3305">
-        <v>5.56585863073694</v>
+        <v>5.565858630736939</v>
       </c>
     </row>
     <row r="3306" spans="1:2">
@@ -26791,7 +26791,7 @@
         <v>3306</v>
       </c>
       <c r="B3306">
-        <v>37.10543113387427</v>
+        <v>37.10543113387426</v>
       </c>
     </row>
     <row r="3307" spans="1:2">
@@ -27223,7 +27223,7 @@
         <v>3360</v>
       </c>
       <c r="B3360">
-        <v>4.657924552964092</v>
+        <v>4.657924552964091</v>
       </c>
     </row>
     <row r="3361" spans="1:2">
@@ -27287,7 +27287,7 @@
         <v>3368</v>
       </c>
       <c r="B3368">
-        <v>2.437043944829964</v>
+        <v>2.437043944829963</v>
       </c>
     </row>
     <row r="3369" spans="1:2">
@@ -27303,7 +27303,7 @@
         <v>3370</v>
       </c>
       <c r="B3370">
-        <v>9.285193875284207</v>
+        <v>9.285193875284206</v>
       </c>
     </row>
     <row r="3371" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>7.079218860176394</v>
+        <v>7.079218860176393</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27359,7 +27359,7 @@
         <v>3377</v>
       </c>
       <c r="B3377">
-        <v>9.818846929582651</v>
+        <v>9.81884692958265</v>
       </c>
     </row>
     <row r="3378" spans="1:2">
@@ -27463,7 +27463,7 @@
         <v>3390</v>
       </c>
       <c r="B3390">
-        <v>3.271112398018606</v>
+        <v>3.271112398018605</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -27543,7 +27543,7 @@
         <v>3400</v>
       </c>
       <c r="B3400">
-        <v>57.1195454350962</v>
+        <v>57.11954543509619</v>
       </c>
     </row>
     <row r="3401" spans="1:2">
@@ -27591,7 +27591,7 @@
         <v>3406</v>
       </c>
       <c r="B3406">
-        <v>41.40566248415219</v>
+        <v>41.40566248415218</v>
       </c>
     </row>
     <row r="3407" spans="1:2">
@@ -27655,7 +27655,7 @@
         <v>3414</v>
       </c>
       <c r="B3414">
-        <v>7.572457418243438</v>
+        <v>7.572457418243437</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>30.09370653390158</v>
+        <v>30.09370653390157</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27727,7 +27727,7 @@
         <v>3423</v>
       </c>
       <c r="B3423">
-        <v>64.44544218851385</v>
+        <v>64.44544218851384</v>
       </c>
     </row>
     <row r="3424" spans="1:2">
@@ -27855,7 +27855,7 @@
         <v>3439</v>
       </c>
       <c r="B3439">
-        <v>8.877063146844417</v>
+        <v>8.877063146844415</v>
       </c>
     </row>
     <row r="3440" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>47.37522647064513</v>
+        <v>47.37522647064512</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>72.93922703099696</v>
+        <v>72.93922703099695</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>97.20052682449912</v>
+        <v>97.20052682449909</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -27959,7 +27959,7 @@
         <v>3452</v>
       </c>
       <c r="B3452">
-        <v>127.6690712168486</v>
+        <v>127.6690712168485</v>
       </c>
     </row>
     <row r="3453" spans="1:2">
@@ -28047,7 +28047,7 @@
         <v>3463</v>
       </c>
       <c r="B3463">
-        <v>17.46729766815098</v>
+        <v>17.46729766815097</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -28095,7 +28095,7 @@
         <v>3469</v>
       </c>
       <c r="B3469">
-        <v>58.09283435449053</v>
+        <v>58.09283435449052</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -28247,7 +28247,7 @@
         <v>3488</v>
       </c>
       <c r="B3488">
-        <v>7.778193287383703</v>
+        <v>7.778193287383702</v>
       </c>
     </row>
     <row r="3489" spans="1:2">
@@ -28255,7 +28255,7 @@
         <v>3489</v>
       </c>
       <c r="B3489">
-        <v>9.45136515420519</v>
+        <v>9.451365154205188</v>
       </c>
     </row>
     <row r="3490" spans="1:2">
@@ -28327,7 +28327,7 @@
         <v>3498</v>
       </c>
       <c r="B3498">
-        <v>196.7183663516935</v>
+        <v>196.7183663516934</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -28383,7 +28383,7 @@
         <v>3505</v>
       </c>
       <c r="B3505">
-        <v>56.745000647687</v>
+        <v>56.74500064768699</v>
       </c>
     </row>
     <row r="3506" spans="1:2">
@@ -28439,7 +28439,7 @@
         <v>3512</v>
       </c>
       <c r="B3512">
-        <v>37.38560704683452</v>
+        <v>37.38560704683451</v>
       </c>
     </row>
     <row r="3513" spans="1:2">
@@ -28607,7 +28607,7 @@
         <v>3533</v>
       </c>
       <c r="B3533">
-        <v>30.39556970372277</v>
+        <v>30.39556970372276</v>
       </c>
     </row>
     <row r="3534" spans="1:2">
@@ -28631,7 +28631,7 @@
         <v>3536</v>
       </c>
       <c r="B3536">
-        <v>23.69778280036412</v>
+        <v>23.69778280036411</v>
       </c>
     </row>
     <row r="3537" spans="1:2">
@@ -28671,7 +28671,7 @@
         <v>3541</v>
       </c>
       <c r="B3541">
-        <v>82.29932986376301</v>
+        <v>82.29932986376299</v>
       </c>
     </row>
     <row r="3542" spans="1:2">
@@ -28703,7 +28703,7 @@
         <v>3545</v>
       </c>
       <c r="B3545">
-        <v>87.14027728037111</v>
+        <v>87.14027728037109</v>
       </c>
     </row>
     <row r="3546" spans="1:2">
@@ -28767,7 +28767,7 @@
         <v>3553</v>
       </c>
       <c r="B3553">
-        <v>55.16065861268377</v>
+        <v>55.16065861268376</v>
       </c>
     </row>
     <row r="3554" spans="1:2">
@@ -28919,7 +28919,7 @@
         <v>3572</v>
       </c>
       <c r="B3572">
-        <v>147.6606190480936</v>
+        <v>147.6606190480935</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -28983,7 +28983,7 @@
         <v>3580</v>
       </c>
       <c r="B3580">
-        <v>24.83152811342553</v>
+        <v>24.83152811342552</v>
       </c>
     </row>
     <row r="3581" spans="1:2">
@@ -29119,7 +29119,7 @@
         <v>3597</v>
       </c>
       <c r="B3597">
-        <v>134.0278335426838</v>
+        <v>134.0278335426837</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -29175,7 +29175,7 @@
         <v>3604</v>
       </c>
       <c r="B3604">
-        <v>45.50777781229504</v>
+        <v>45.50777781229503</v>
       </c>
     </row>
     <row r="3605" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>89.58038674826547</v>
+        <v>89.58038674826545</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29359,7 +29359,7 @@
         <v>3627</v>
       </c>
       <c r="B3627">
-        <v>60.12352358137499</v>
+        <v>60.12352358137498</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
@@ -29375,7 +29375,7 @@
         <v>3629</v>
       </c>
       <c r="B3629">
-        <v>50.51636186301743</v>
+        <v>50.51636186301742</v>
       </c>
     </row>
     <row r="3630" spans="1:2">
@@ -29383,7 +29383,7 @@
         <v>3630</v>
       </c>
       <c r="B3630">
-        <v>70.60843306052328</v>
+        <v>70.60843306052327</v>
       </c>
     </row>
     <row r="3631" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>3632</v>
       </c>
       <c r="B3632">
-        <v>62.85494566169873</v>
+        <v>62.85494566169872</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -29407,7 +29407,7 @@
         <v>3633</v>
       </c>
       <c r="B3633">
-        <v>75.10971114332288</v>
+        <v>75.10971114332287</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -29463,7 +29463,7 @@
         <v>3640</v>
       </c>
       <c r="B3640">
-        <v>124.6946932454746</v>
+        <v>124.6946932454745</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -29527,7 +29527,7 @@
         <v>3648</v>
       </c>
       <c r="B3648">
-        <v>59.26511850913591</v>
+        <v>59.2651185091359</v>
       </c>
     </row>
     <row r="3649" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>137.5707693290608</v>
+        <v>137.5707693290607</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29791,7 +29791,7 @@
         <v>3681</v>
       </c>
       <c r="B3681">
-        <v>40.15483529114557</v>
+        <v>40.15483529114556</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>45.41839114550333</v>
+        <v>45.41839114550332</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29927,7 +29927,7 @@
         <v>3698</v>
       </c>
       <c r="B3698">
-        <v>17.091609903691</v>
+        <v>17.09160990369099</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>36.96534317739415</v>
+        <v>36.96534317739414</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -30071,7 +30071,7 @@
         <v>3716</v>
       </c>
       <c r="B3716">
-        <v>117.9977269410242</v>
+        <v>117.9977269410241</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -30087,7 +30087,7 @@
         <v>3718</v>
       </c>
       <c r="B3718">
-        <v>86.23351548675291</v>
+        <v>86.23351548675289</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
@@ -30287,7 +30287,7 @@
         <v>3743</v>
       </c>
       <c r="B3743">
-        <v>73.12532714054691</v>
+        <v>73.1253271405469</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -30295,7 +30295,7 @@
         <v>3744</v>
       </c>
       <c r="B3744">
-        <v>64.50171182793683</v>
+        <v>64.50171182793682</v>
       </c>
     </row>
     <row r="3745" spans="1:2">
@@ -30335,7 +30335,7 @@
         <v>3749</v>
       </c>
       <c r="B3749">
-        <v>44.54474637925386</v>
+        <v>44.54474637925385</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>28.98794950503233</v>
+        <v>28.98794950503232</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -30399,7 +30399,7 @@
         <v>3757</v>
       </c>
       <c r="B3757">
-        <v>90.78578793027958</v>
+        <v>90.78578793027955</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
@@ -30511,7 +30511,7 @@
         <v>3771</v>
       </c>
       <c r="B3771">
-        <v>71.6629026576268</v>
+        <v>71.66290265762679</v>
       </c>
     </row>
     <row r="3772" spans="1:2">
@@ -30687,7 +30687,7 @@
         <v>3793</v>
       </c>
       <c r="B3793">
-        <v>83.27496335146662</v>
+        <v>83.27496335146661</v>
       </c>
     </row>
     <row r="3794" spans="1:2">
@@ -30719,7 +30719,7 @@
         <v>3797</v>
       </c>
       <c r="B3797">
-        <v>63.02756450347026</v>
+        <v>63.02756450347025</v>
       </c>
     </row>
     <row r="3798" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>69.53344849071347</v>
+        <v>69.53344849071345</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30767,7 +30767,7 @@
         <v>3803</v>
       </c>
       <c r="B3803">
-        <v>78.13449733334663</v>
+        <v>78.13449733334662</v>
       </c>
     </row>
     <row r="3804" spans="1:2">
@@ -30855,7 +30855,7 @@
         <v>3814</v>
       </c>
       <c r="B3814">
-        <v>79.84339455978093</v>
+        <v>79.84339455978092</v>
       </c>
     </row>
     <row r="3815" spans="1:2">
@@ -30871,7 +30871,7 @@
         <v>3816</v>
       </c>
       <c r="B3816">
-        <v>44.91665352731511</v>
+        <v>44.9166535273151</v>
       </c>
     </row>
     <row r="3817" spans="1:2">
@@ -30951,7 +30951,7 @@
         <v>3826</v>
       </c>
       <c r="B3826">
-        <v>36.40733591978295</v>
+        <v>36.40733591978294</v>
       </c>
     </row>
     <row r="3827" spans="1:2">
@@ -31023,7 +31023,7 @@
         <v>3835</v>
       </c>
       <c r="B3835">
-        <v>136.0347840154367</v>
+        <v>136.0347840154366</v>
       </c>
     </row>
     <row r="3836" spans="1:2">
@@ -31119,7 +31119,7 @@
         <v>3847</v>
       </c>
       <c r="B3847">
-        <v>6.417933368540935</v>
+        <v>6.417933368540934</v>
       </c>
     </row>
     <row r="3848" spans="1:2">
@@ -31127,7 +31127,7 @@
         <v>3848</v>
       </c>
       <c r="B3848">
-        <v>9.24058846319995</v>
+        <v>9.240588463199948</v>
       </c>
     </row>
     <row r="3849" spans="1:2">
@@ -31175,7 +31175,7 @@
         <v>3854</v>
       </c>
       <c r="B3854">
-        <v>57.71565192773338</v>
+        <v>57.71565192773337</v>
       </c>
     </row>
     <row r="3855" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>53.52737371422409</v>
+        <v>53.52737371422408</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>27.68105782232979</v>
+        <v>27.68105782232978</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -31399,7 +31399,7 @@
         <v>3882</v>
       </c>
       <c r="B3882">
-        <v>155.7200726112806</v>
+        <v>155.7200726112805</v>
       </c>
     </row>
     <row r="3883" spans="1:2">
@@ -31463,7 +31463,7 @@
         <v>3890</v>
       </c>
       <c r="B3890">
-        <v>44.92661794262959</v>
+        <v>44.92661794262958</v>
       </c>
     </row>
     <row r="3891" spans="1:2">
@@ -31495,7 +31495,7 @@
         <v>3894</v>
       </c>
       <c r="B3894">
-        <v>47.1457518473733</v>
+        <v>47.14575184737329</v>
       </c>
     </row>
     <row r="3895" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>49.6424240257293</v>
+        <v>49.64242402572929</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31575,7 +31575,7 @@
         <v>3904</v>
       </c>
       <c r="B3904">
-        <v>77.90209199968818</v>
+        <v>77.90209199968817</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -31639,7 +31639,7 @@
         <v>3912</v>
       </c>
       <c r="B3912">
-        <v>72.87035533691154</v>
+        <v>72.87035533691153</v>
       </c>
     </row>
     <row r="3913" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>92.2482124131997</v>
+        <v>92.24821241319968</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31791,7 +31791,7 @@
         <v>3931</v>
       </c>
       <c r="B3931">
-        <v>217.5390121513115</v>
+        <v>217.5390121513114</v>
       </c>
     </row>
     <row r="3932" spans="1:2">
@@ -31847,7 +31847,7 @@
         <v>3938</v>
       </c>
       <c r="B3938">
-        <v>84.03987876237274</v>
+        <v>84.03987876237272</v>
       </c>
     </row>
     <row r="3939" spans="1:2">
@@ -32031,7 +32031,7 @@
         <v>3961</v>
       </c>
       <c r="B3961">
-        <v>113.1415398304057</v>
+        <v>113.1415398304056</v>
       </c>
     </row>
     <row r="3962" spans="1:2">
@@ -32287,7 +32287,7 @@
         <v>3993</v>
       </c>
       <c r="B3993">
-        <v>86.62828217582974</v>
+        <v>86.62828217582972</v>
       </c>
     </row>
     <row r="3994" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>73.07433277981984</v>
+        <v>73.07433277981983</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32615,7 +32615,7 @@
         <v>4034</v>
       </c>
       <c r="B4034">
-        <v>61.97045726701879</v>
+        <v>61.97045726701878</v>
       </c>
     </row>
     <row r="4035" spans="1:2">
@@ -32751,7 +32751,7 @@
         <v>4051</v>
       </c>
       <c r="B4051">
-        <v>239.8305814939707</v>
+        <v>239.8305814939706</v>
       </c>
     </row>
     <row r="4052" spans="1:2">
@@ -32855,7 +32855,7 @@
         <v>4064</v>
       </c>
       <c r="B4064">
-        <v>70.30774217485674</v>
+        <v>70.30774217485673</v>
       </c>
     </row>
     <row r="4065" spans="1:2">
@@ -33015,7 +33015,7 @@
         <v>4084</v>
       </c>
       <c r="B4084">
-        <v>72.31791642903491</v>
+        <v>72.3179164290349</v>
       </c>
     </row>
     <row r="4085" spans="1:2">
@@ -33279,7 +33279,7 @@
         <v>4117</v>
       </c>
       <c r="B4117">
-        <v>89.31867431074089</v>
+        <v>89.31867431074087</v>
       </c>
     </row>
     <row r="4118" spans="1:2">
@@ -33359,7 +33359,7 @@
         <v>4127</v>
       </c>
       <c r="B4127">
-        <v>98.52843170067366</v>
+        <v>98.52843170067364</v>
       </c>
     </row>
     <row r="4128" spans="1:2">
@@ -33375,7 +33375,7 @@
         <v>4129</v>
       </c>
       <c r="B4129">
-        <v>84.32474381195156</v>
+        <v>84.32474381195155</v>
       </c>
     </row>
     <row r="4130" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>77.16824211888017</v>
+        <v>77.16824211888016</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -33567,7 +33567,7 @@
         <v>4153</v>
       </c>
       <c r="B4153">
-        <v>82.75095233434014</v>
+        <v>82.75095233434013</v>
       </c>
     </row>
     <row r="4154" spans="1:2">
@@ -33583,7 +33583,7 @@
         <v>4155</v>
       </c>
       <c r="B4155">
-        <v>70.44548556302757</v>
+        <v>70.44548556302756</v>
       </c>
     </row>
     <row r="4156" spans="1:2">
@@ -33751,7 +33751,7 @@
         <v>4176</v>
       </c>
       <c r="B4176">
-        <v>87.46148313874394</v>
+        <v>87.46148313874393</v>
       </c>
     </row>
     <row r="4177" spans="1:2">
@@ -33895,7 +33895,7 @@
         <v>4194</v>
       </c>
       <c r="B4194">
-        <v>247.2909978541339</v>
+        <v>247.2909978541338</v>
       </c>
     </row>
     <row r="4195" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>105.580307032943</v>
+        <v>105.5803070329429</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -34015,7 +34015,7 @@
         <v>4209</v>
       </c>
       <c r="B4209">
-        <v>87.80789310644165</v>
+        <v>87.80789310644164</v>
       </c>
     </row>
     <row r="4210" spans="1:2">
@@ -34127,7 +34127,7 @@
         <v>4223</v>
       </c>
       <c r="B4223">
-        <v>82.77557030158769</v>
+        <v>82.77557030158768</v>
       </c>
     </row>
     <row r="4224" spans="1:2">
@@ -34143,7 +34143,7 @@
         <v>4225</v>
       </c>
       <c r="B4225">
-        <v>61.10413927673585</v>
+        <v>61.10413927673584</v>
       </c>
     </row>
     <row r="4226" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>82.56162844336491</v>
+        <v>82.5616284433649</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34287,7 +34287,7 @@
         <v>4243</v>
       </c>
       <c r="B4243">
-        <v>185.3290396472363</v>
+        <v>185.3290396472362</v>
       </c>
     </row>
     <row r="4244" spans="1:2">
@@ -34311,7 +34311,7 @@
         <v>4246</v>
       </c>
       <c r="B4246">
-        <v>126.4915117835073</v>
+        <v>126.4915117835072</v>
       </c>
     </row>
     <row r="4247" spans="1:2">
@@ -34327,7 +34327,7 @@
         <v>4248</v>
       </c>
       <c r="B4248">
-        <v>90.81949109972564</v>
+        <v>90.81949109972562</v>
       </c>
     </row>
     <row r="4249" spans="1:2">
@@ -34543,7 +34543,7 @@
         <v>4275</v>
       </c>
       <c r="B4275">
-        <v>52.04970953729359</v>
+        <v>52.04970953729358</v>
       </c>
     </row>
     <row r="4276" spans="1:2">
@@ -34631,7 +34631,7 @@
         <v>4286</v>
       </c>
       <c r="B4286">
-        <v>93.95564428444069</v>
+        <v>93.95564428444068</v>
       </c>
     </row>
     <row r="4287" spans="1:2">
@@ -34679,7 +34679,7 @@
         <v>4292</v>
       </c>
       <c r="B4292">
-        <v>152.7805700935073</v>
+        <v>152.7805700935072</v>
       </c>
     </row>
     <row r="4293" spans="1:2">
@@ -34879,7 +34879,7 @@
         <v>4317</v>
       </c>
       <c r="B4317">
-        <v>118.9833248440423</v>
+        <v>118.9833248440422</v>
       </c>
     </row>
     <row r="4318" spans="1:2">
@@ -34903,7 +34903,7 @@
         <v>4320</v>
       </c>
       <c r="B4320">
-        <v>71.06210702837105</v>
+        <v>71.06210702837103</v>
       </c>
     </row>
     <row r="4321" spans="1:2">
@@ -34911,7 +34911,7 @@
         <v>4321</v>
       </c>
       <c r="B4321">
-        <v>66.98812651993968</v>
+        <v>66.98812651993967</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -34983,7 +34983,7 @@
         <v>4330</v>
       </c>
       <c r="B4330">
-        <v>56.64623570765813</v>
+        <v>56.64623570765812</v>
       </c>
     </row>
     <row r="4331" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>86.28656134475061</v>
+        <v>86.2865613447506</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35087,7 +35087,7 @@
         <v>4343</v>
       </c>
       <c r="B4343">
-        <v>84.20810153856435</v>
+        <v>84.20810153856434</v>
       </c>
     </row>
     <row r="4344" spans="1:2">
@@ -35199,7 +35199,7 @@
         <v>4357</v>
       </c>
       <c r="B4357">
-        <v>70.0017760104943</v>
+        <v>70.00177601049428</v>
       </c>
     </row>
     <row r="4358" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>87.89200449453746</v>
+        <v>87.89200449453745</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35311,7 +35311,7 @@
         <v>4371</v>
       </c>
       <c r="B4371">
-        <v>76.99005492737408</v>
+        <v>76.99005492737406</v>
       </c>
     </row>
     <row r="4372" spans="1:2">
@@ -35383,7 +35383,7 @@
         <v>4380</v>
       </c>
       <c r="B4380">
-        <v>89.33860314136986</v>
+        <v>89.33860314136984</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35431,7 +35431,7 @@
         <v>4386</v>
       </c>
       <c r="B4386">
-        <v>272.5815631354147</v>
+        <v>272.5815631354146</v>
       </c>
     </row>
     <row r="4387" spans="1:2">
@@ -35495,7 +35495,7 @@
         <v>4394</v>
       </c>
       <c r="B4394">
-        <v>84.95191583468684</v>
+        <v>84.95191583468683</v>
       </c>
     </row>
     <row r="4395" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>70.92905277681879</v>
+        <v>70.92905277681878</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>89.15045153454928</v>
+        <v>89.15045153454926</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35767,7 +35767,7 @@
         <v>4428</v>
       </c>
       <c r="B4428">
-        <v>39.20469898380549</v>
+        <v>39.20469898380548</v>
       </c>
     </row>
     <row r="4429" spans="1:2">
@@ -36071,7 +36071,7 @@
         <v>4466</v>
       </c>
       <c r="B4466">
-        <v>83.6656270460022</v>
+        <v>83.66562704600219</v>
       </c>
     </row>
     <row r="4467" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>98.87015253175279</v>
+        <v>98.87015253175278</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36239,7 +36239,7 @@
         <v>4487</v>
       </c>
       <c r="B4487">
-        <v>125.1609692679848</v>
+        <v>125.1609692679847</v>
       </c>
     </row>
     <row r="4488" spans="1:2">
@@ -36263,7 +36263,7 @@
         <v>4490</v>
       </c>
       <c r="B4490">
-        <v>91.32357328622317</v>
+        <v>91.32357328622314</v>
       </c>
     </row>
     <row r="4491" spans="1:2">
@@ -36271,7 +36271,7 @@
         <v>4491</v>
       </c>
       <c r="B4491">
-        <v>84.94664055599094</v>
+        <v>84.94664055599092</v>
       </c>
     </row>
     <row r="4492" spans="1:2">
@@ -36287,7 +36287,7 @@
         <v>4493</v>
       </c>
       <c r="B4493">
-        <v>70.64682536658792</v>
+        <v>70.6468253665879</v>
       </c>
     </row>
     <row r="4494" spans="1:2">
@@ -36471,7 +36471,7 @@
         <v>4516</v>
       </c>
       <c r="B4516">
-        <v>80.97464876901373</v>
+        <v>80.97464876901371</v>
       </c>
     </row>
     <row r="4517" spans="1:2">
@@ -36503,7 +36503,7 @@
         <v>4520</v>
       </c>
       <c r="B4520">
-        <v>85.28308610837416</v>
+        <v>85.28308610837415</v>
       </c>
     </row>
     <row r="4521" spans="1:2">
@@ -36575,7 +36575,7 @@
         <v>4529</v>
       </c>
       <c r="B4529">
-        <v>117.2964079455076</v>
+        <v>117.2964079455075</v>
       </c>
     </row>
     <row r="4530" spans="1:2">
@@ -36655,7 +36655,7 @@
         <v>4539</v>
       </c>
       <c r="B4539">
-        <v>79.8413430625103</v>
+        <v>79.84134306251029</v>
       </c>
     </row>
     <row r="4540" spans="1:2">
@@ -36663,7 +36663,7 @@
         <v>4540</v>
       </c>
       <c r="B4540">
-        <v>75.83887188751231</v>
+        <v>75.8388718875123</v>
       </c>
     </row>
     <row r="4541" spans="1:2">
@@ -36735,7 +36735,7 @@
         <v>4549</v>
       </c>
       <c r="B4549">
-        <v>89.93793341543231</v>
+        <v>89.9379334154323</v>
       </c>
     </row>
     <row r="4550" spans="1:2">
@@ -36751,7 +36751,7 @@
         <v>4551</v>
       </c>
       <c r="B4551">
-        <v>91.78252253276682</v>
+        <v>91.78252253276681</v>
       </c>
     </row>
     <row r="4552" spans="1:2">
@@ -36839,7 +36839,7 @@
         <v>4562</v>
       </c>
       <c r="B4562">
-        <v>71.505230438827</v>
+        <v>71.50523043882698</v>
       </c>
     </row>
     <row r="4563" spans="1:2">
@@ -36847,7 +36847,7 @@
         <v>4563</v>
       </c>
       <c r="B4563">
-        <v>67.99423939566408</v>
+        <v>67.99423939566407</v>
       </c>
     </row>
     <row r="4564" spans="1:2">
@@ -36855,7 +36855,7 @@
         <v>4564</v>
       </c>
       <c r="B4564">
-        <v>61.60880760531069</v>
+        <v>61.60880760531068</v>
       </c>
     </row>
     <row r="4565" spans="1:2">
@@ -36951,7 +36951,7 @@
         <v>4576</v>
       </c>
       <c r="B4576">
-        <v>67.82865425882042</v>
+        <v>67.82865425882041</v>
       </c>
     </row>
     <row r="4577" spans="1:2">
@@ -37055,7 +37055,7 @@
         <v>4589</v>
       </c>
       <c r="B4589">
-        <v>43.45159140504704</v>
+        <v>43.45159140504703</v>
       </c>
     </row>
     <row r="4590" spans="1:2">
@@ -37207,7 +37207,7 @@
         <v>4608</v>
       </c>
       <c r="B4608">
-        <v>94.5280120229463</v>
+        <v>94.52801202294629</v>
       </c>
     </row>
     <row r="4609" spans="1:2">
@@ -37215,7 +37215,7 @@
         <v>4609</v>
       </c>
       <c r="B4609">
-        <v>84.96451788934928</v>
+        <v>84.96451788934927</v>
       </c>
     </row>
     <row r="4610" spans="1:2">
@@ -37335,7 +37335,7 @@
         <v>4624</v>
       </c>
       <c r="B4624">
-        <v>81.2296205726491</v>
+        <v>81.22962057264908</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37423,7 +37423,7 @@
         <v>4635</v>
       </c>
       <c r="B4635">
-        <v>79.74931875637064</v>
+        <v>79.74931875637063</v>
       </c>
     </row>
     <row r="4636" spans="1:2">
@@ -37431,7 +37431,7 @@
         <v>4636</v>
       </c>
       <c r="B4636">
-        <v>75.96870235763929</v>
+        <v>75.96870235763927</v>
       </c>
     </row>
     <row r="4637" spans="1:2">
@@ -37447,7 +37447,7 @@
         <v>4638</v>
       </c>
       <c r="B4638">
-        <v>84.05511845638313</v>
+        <v>84.05511845638311</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37463,7 +37463,7 @@
         <v>4640</v>
       </c>
       <c r="B4640">
-        <v>16.94240743790851</v>
+        <v>16.9424074379085</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>45.07198117780562</v>
+        <v>45.07198117780561</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37623,7 +37623,7 @@
         <v>4660</v>
       </c>
       <c r="B4660">
-        <v>70.53223459047133</v>
+        <v>70.53223459047132</v>
       </c>
     </row>
     <row r="4661" spans="1:2">
@@ -37631,7 +37631,7 @@
         <v>4661</v>
       </c>
       <c r="B4661">
-        <v>67.576320094533</v>
+        <v>67.57632009453299</v>
       </c>
     </row>
     <row r="4662" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>80.36594022171411</v>
+        <v>80.3659402217141</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>79.86390953248723</v>
+        <v>79.86390953248721</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37719,7 +37719,7 @@
         <v>4672</v>
       </c>
       <c r="B4672">
-        <v>95.71817351095002</v>
+        <v>95.71817351095</v>
       </c>
     </row>
     <row r="4673" spans="1:2">
@@ -37775,7 +37775,7 @@
         <v>4679</v>
       </c>
       <c r="B4679">
-        <v>97.45813626748244</v>
+        <v>97.45813626748242</v>
       </c>
     </row>
     <row r="4680" spans="1:2">
@@ -38015,7 +38015,7 @@
         <v>4709</v>
       </c>
       <c r="B4709">
-        <v>49.59172273604089</v>
+        <v>49.59172273604088</v>
       </c>
     </row>
     <row r="4710" spans="1:2">
@@ -38191,7 +38191,7 @@
         <v>4731</v>
       </c>
       <c r="B4731">
-        <v>68.31544525403692</v>
+        <v>68.3154452540369</v>
       </c>
     </row>
     <row r="4732" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>73.25574375275121</v>
+        <v>73.2557437527512</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38567,7 +38567,7 @@
         <v>4778</v>
       </c>
       <c r="B4778">
-        <v>105.8015756671323</v>
+        <v>105.8015756671322</v>
       </c>
     </row>
     <row r="4779" spans="1:2">
@@ -38575,7 +38575,7 @@
         <v>4779</v>
       </c>
       <c r="B4779">
-        <v>100.036575265625</v>
+        <v>100.0365752656249</v>
       </c>
     </row>
     <row r="4780" spans="1:2">
@@ -38695,7 +38695,7 @@
         <v>4794</v>
       </c>
       <c r="B4794">
-        <v>249.4556205456866</v>
+        <v>249.4556205456865</v>
       </c>
     </row>
     <row r="4795" spans="1:2">
@@ -38759,7 +38759,7 @@
         <v>4802</v>
       </c>
       <c r="B4802">
-        <v>110.4212544495511</v>
+        <v>110.421254449551</v>
       </c>
     </row>
     <row r="4803" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>129.5332960937734</v>
+        <v>129.5332960937733</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>147.1811548288436</v>
+        <v>147.1811548288435</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -39183,7 +39183,7 @@
         <v>4855</v>
       </c>
       <c r="B4855">
-        <v>55.1020444049515</v>
+        <v>55.10204440495149</v>
       </c>
     </row>
     <row r="4856" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>127.444578801234</v>
+        <v>127.4445788012339</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39471,7 +39471,7 @@
         <v>4891</v>
       </c>
       <c r="B4891">
-        <v>286.847382084333</v>
+        <v>286.8473820843329</v>
       </c>
     </row>
     <row r="4892" spans="1:2">
@@ -39479,7 +39479,7 @@
         <v>4892</v>
       </c>
       <c r="B4892">
-        <v>211.9911773894522</v>
+        <v>211.9911773894521</v>
       </c>
     </row>
     <row r="4893" spans="1:2">
@@ -39487,7 +39487,7 @@
         <v>4893</v>
       </c>
       <c r="B4893">
-        <v>200.8858365214578</v>
+        <v>200.8858365214577</v>
       </c>
     </row>
     <row r="4894" spans="1:2">
@@ -39575,7 +39575,7 @@
         <v>4904</v>
       </c>
       <c r="B4904">
-        <v>58.97732274917047</v>
+        <v>58.97732274917046</v>
       </c>
     </row>
     <row r="4905" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>74.85005020306893</v>
+        <v>74.85005020306892</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>100.0471258230168</v>
+        <v>100.0471258230167</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39655,7 +39655,7 @@
         <v>4914</v>
       </c>
       <c r="B4914">
-        <v>255.0374515480306</v>
+        <v>255.0374515480305</v>
       </c>
     </row>
     <row r="4915" spans="1:2">
@@ -39695,7 +39695,7 @@
         <v>4919</v>
       </c>
       <c r="B4919">
-        <v>138.9795618119059</v>
+        <v>138.9795618119058</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -40103,7 +40103,7 @@
         <v>4970</v>
       </c>
       <c r="B4970">
-        <v>75.55810983247474</v>
+        <v>75.55810983247473</v>
       </c>
     </row>
     <row r="4971" spans="1:2">
@@ -40127,7 +40127,7 @@
         <v>4973</v>
       </c>
       <c r="B4973">
-        <v>62.33474456807484</v>
+        <v>62.33474456807483</v>
       </c>
     </row>
     <row r="4974" spans="1:2">
@@ -40167,7 +40167,7 @@
         <v>4978</v>
       </c>
       <c r="B4978">
-        <v>57.85075767655626</v>
+        <v>57.85075767655625</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40311,7 +40311,7 @@
         <v>4996</v>
       </c>
       <c r="B4996">
-        <v>39.40076350866993</v>
+        <v>39.40076350866992</v>
       </c>
     </row>
     <row r="4997" spans="1:2">
@@ -40375,7 +40375,7 @@
         <v>5004</v>
       </c>
       <c r="B5004">
-        <v>77.72390480818208</v>
+        <v>77.72390480818207</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40415,7 +40415,7 @@
         <v>5009</v>
       </c>
       <c r="B5009">
-        <v>98.6403848374423</v>
+        <v>98.64038483744228</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40471,7 +40471,7 @@
         <v>5016</v>
       </c>
       <c r="B5016">
-        <v>76.28463293731622</v>
+        <v>76.2846329373162</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40567,7 +40567,7 @@
         <v>5028</v>
       </c>
       <c r="B5028">
-        <v>48.60553869094546</v>
+        <v>48.60553869094545</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40591,7 +40591,7 @@
         <v>5031</v>
       </c>
       <c r="B5031">
-        <v>62.08299654586475</v>
+        <v>62.08299654586474</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -40767,7 +40767,7 @@
         <v>5053</v>
       </c>
       <c r="B5053">
-        <v>42.15475205897059</v>
+        <v>42.15475205897058</v>
       </c>
     </row>
     <row r="5054" spans="1:2">
@@ -40783,7 +40783,7 @@
         <v>5055</v>
       </c>
       <c r="B5055">
-        <v>72.57552587201823</v>
+        <v>72.57552587201822</v>
       </c>
     </row>
     <row r="5056" spans="1:2">
@@ -40871,7 +40871,7 @@
         <v>5066</v>
       </c>
       <c r="B5066">
-        <v>57.22153415655035</v>
+        <v>57.22153415655034</v>
       </c>
     </row>
     <row r="5067" spans="1:2">
@@ -40959,7 +40959,7 @@
         <v>5077</v>
       </c>
       <c r="B5077">
-        <v>76.55689593223261</v>
+        <v>76.55689593223259</v>
       </c>
     </row>
     <row r="5078" spans="1:2">
@@ -41055,7 +41055,7 @@
         <v>5089</v>
       </c>
       <c r="B5089">
-        <v>85.55329760601992</v>
+        <v>85.55329760601991</v>
       </c>
     </row>
     <row r="5090" spans="1:2">
@@ -41087,7 +41087,7 @@
         <v>5093</v>
       </c>
       <c r="B5093">
-        <v>66.34835244254197</v>
+        <v>66.34835244254195</v>
       </c>
     </row>
     <row r="5094" spans="1:2">
@@ -41271,7 +41271,7 @@
         <v>5116</v>
       </c>
       <c r="B5116">
-        <v>79.19424220914605</v>
+        <v>79.19424220914604</v>
       </c>
     </row>
     <row r="5117" spans="1:2">
@@ -41287,7 +41287,7 @@
         <v>5118</v>
       </c>
       <c r="B5118">
-        <v>85.80768326757797</v>
+        <v>85.80768326757796</v>
       </c>
     </row>
     <row r="5119" spans="1:2">
@@ -41463,7 +41463,7 @@
         <v>5140</v>
       </c>
       <c r="B5140">
-        <v>77.32181134313872</v>
+        <v>77.32181134313871</v>
       </c>
     </row>
     <row r="5141" spans="1:2">
@@ -41543,7 +41543,7 @@
         <v>5150</v>
       </c>
       <c r="B5150">
-        <v>88.6862270093097</v>
+        <v>88.68622700930969</v>
       </c>
     </row>
     <row r="5151" spans="1:2">
@@ -41679,7 +41679,7 @@
         <v>5167</v>
       </c>
       <c r="B5167">
-        <v>24.70322161269959</v>
+        <v>24.70322161269958</v>
       </c>
     </row>
     <row r="5168" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>85.61367023998416</v>
+        <v>85.61367023998415</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>71.98674615534759</v>
+        <v>71.98674615534757</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -41975,7 +41975,7 @@
         <v>5204</v>
       </c>
       <c r="B5204">
-        <v>99.28748569080656</v>
+        <v>99.28748569080652</v>
       </c>
     </row>
     <row r="5205" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>38.40197740891206</v>
+        <v>38.40197740891205</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42143,7 +42143,7 @@
         <v>5225</v>
       </c>
       <c r="B5225">
-        <v>87.52713105140408</v>
+        <v>87.52713105140407</v>
       </c>
     </row>
     <row r="5226" spans="1:2">
@@ -42223,7 +42223,7 @@
         <v>5235</v>
       </c>
       <c r="B5235">
-        <v>21.7712510206199</v>
+        <v>21.77125102061989</v>
       </c>
     </row>
     <row r="5236" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>15.7460914580929</v>
+        <v>15.74609145809289</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>49.32151123839513</v>
+        <v>49.32151123839512</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42327,7 +42327,7 @@
         <v>5248</v>
       </c>
       <c r="B5248">
-        <v>94.90548752074211</v>
+        <v>94.9054875207421</v>
       </c>
     </row>
     <row r="5249" spans="1:2">
@@ -42455,7 +42455,7 @@
         <v>5264</v>
       </c>
       <c r="B5264">
-        <v>44.55500386560701</v>
+        <v>44.555003865607</v>
       </c>
     </row>
     <row r="5265" spans="1:2">
@@ -42487,7 +42487,7 @@
         <v>5268</v>
       </c>
       <c r="B5268">
-        <v>65.28655606947191</v>
+        <v>65.2865560694719</v>
       </c>
     </row>
     <row r="5269" spans="1:2">
@@ -42535,7 +42535,7 @@
         <v>5274</v>
       </c>
       <c r="B5274">
-        <v>189.5765182105552</v>
+        <v>189.5765182105551</v>
       </c>
     </row>
     <row r="5275" spans="1:2">
@@ -42631,7 +42631,7 @@
         <v>5286</v>
       </c>
       <c r="B5286">
-        <v>39.79318562943747</v>
+        <v>39.79318562943746</v>
       </c>
     </row>
     <row r="5287" spans="1:2">
@@ -42671,7 +42671,7 @@
         <v>5291</v>
       </c>
       <c r="B5291">
-        <v>61.82274946353347</v>
+        <v>61.82274946353346</v>
       </c>
     </row>
     <row r="5292" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>75.12026170071469</v>
+        <v>75.12026170071468</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -42735,7 +42735,7 @@
         <v>5299</v>
       </c>
       <c r="B5299">
-        <v>198.9049693711458</v>
+        <v>198.9049693711457</v>
       </c>
     </row>
     <row r="5300" spans="1:2">
@@ -42783,7 +42783,7 @@
         <v>5305</v>
       </c>
       <c r="B5305">
-        <v>78.6154269077899</v>
+        <v>78.61542690778988</v>
       </c>
     </row>
     <row r="5306" spans="1:2">
@@ -42903,7 +42903,7 @@
         <v>5320</v>
       </c>
       <c r="B5320">
-        <v>115.9134057140647</v>
+        <v>115.9134057140646</v>
       </c>
     </row>
     <row r="5321" spans="1:2">
@@ -42967,7 +42967,7 @@
         <v>5328</v>
       </c>
       <c r="B5328">
-        <v>85.62422079737597</v>
+        <v>85.62422079737595</v>
       </c>
     </row>
     <row r="5329" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>60.00863973421974</v>
+        <v>60.00863973421973</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43239,7 +43239,7 @@
         <v>5362</v>
       </c>
       <c r="B5362">
-        <v>77.68082336549887</v>
+        <v>77.68082336549885</v>
       </c>
     </row>
     <row r="5363" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>107.4832172869711</v>
+        <v>107.483217286971</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43383,7 +43383,7 @@
         <v>5380</v>
       </c>
       <c r="B5380">
-        <v>82.70933624685023</v>
+        <v>82.70933624685021</v>
       </c>
     </row>
     <row r="5381" spans="1:2">
@@ -43575,7 +43575,7 @@
         <v>5404</v>
       </c>
       <c r="B5404">
-        <v>85.66788838213651</v>
+        <v>85.6678883821365</v>
       </c>
     </row>
     <row r="5405" spans="1:2">
@@ -43695,7 +43695,7 @@
         <v>5419</v>
       </c>
       <c r="B5419">
-        <v>198.2385258292299</v>
+        <v>198.2385258292298</v>
       </c>
     </row>
     <row r="5420" spans="1:2">
@@ -43727,7 +43727,7 @@
         <v>5423</v>
       </c>
       <c r="B5423">
-        <v>123.662790118348</v>
+        <v>123.6627901183479</v>
       </c>
     </row>
     <row r="5424" spans="1:2">
@@ -43791,7 +43791,7 @@
         <v>5431</v>
       </c>
       <c r="B5431">
-        <v>7.941580391437403</v>
+        <v>7.941580391437402</v>
       </c>
     </row>
     <row r="5432" spans="1:2">
@@ -43799,7 +43799,7 @@
         <v>5432</v>
       </c>
       <c r="B5432">
-        <v>12.42040923267555</v>
+        <v>12.42040923267554</v>
       </c>
     </row>
     <row r="5433" spans="1:2">
@@ -43927,7 +43927,7 @@
         <v>5448</v>
       </c>
       <c r="B5448">
-        <v>64.78452538024503</v>
+        <v>64.78452538024501</v>
       </c>
     </row>
     <row r="5449" spans="1:2">
@@ -44151,7 +44151,7 @@
         <v>5476</v>
       </c>
       <c r="B5476">
-        <v>44.8067518878171</v>
+        <v>44.80675188781709</v>
       </c>
     </row>
     <row r="5477" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>49.23241764264208</v>
+        <v>49.23241764264207</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44311,7 +44311,7 @@
         <v>5496</v>
       </c>
       <c r="B5496">
-        <v>97.03289019038482</v>
+        <v>97.0328901903848</v>
       </c>
     </row>
     <row r="5497" spans="1:2">
@@ -44335,7 +44335,7 @@
         <v>5499</v>
       </c>
       <c r="B5499">
-        <v>71.28337566256036</v>
+        <v>71.28337566256035</v>
       </c>
     </row>
     <row r="5500" spans="1:2">
@@ -44551,7 +44551,7 @@
         <v>5526</v>
       </c>
       <c r="B5526">
-        <v>47.88956614349579</v>
+        <v>47.88956614349578</v>
       </c>
     </row>
     <row r="5527" spans="1:2">
@@ -44615,7 +44615,7 @@
         <v>5534</v>
       </c>
       <c r="B5534">
-        <v>78.95919923613965</v>
+        <v>78.95919923613964</v>
       </c>
     </row>
     <row r="5535" spans="1:2">
@@ -44671,7 +44671,7 @@
         <v>5541</v>
       </c>
       <c r="B5541">
-        <v>113.9899804873303</v>
+        <v>113.9899804873302</v>
       </c>
     </row>
     <row r="5542" spans="1:2">
@@ -44727,7 +44727,7 @@
         <v>5548</v>
       </c>
       <c r="B5548">
-        <v>54.49597349699984</v>
+        <v>54.49597349699983</v>
       </c>
     </row>
     <row r="5549" spans="1:2">
@@ -44759,7 +44759,7 @@
         <v>5552</v>
       </c>
       <c r="B5552">
-        <v>54.80135351928496</v>
+        <v>54.80135351928495</v>
       </c>
     </row>
     <row r="5553" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>73.56845055100287</v>
+        <v>73.56845055100285</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>83.26499893615214</v>
+        <v>83.26499893615212</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44975,7 +44975,7 @@
         <v>5579</v>
       </c>
       <c r="B5579">
-        <v>34.43819161101737</v>
+        <v>34.43819161101736</v>
       </c>
     </row>
     <row r="5580" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>71.33964530198334</v>
+        <v>71.33964530198332</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -45087,7 +45087,7 @@
         <v>5593</v>
       </c>
       <c r="B5593">
-        <v>76.92645851198456</v>
+        <v>76.92645851198455</v>
       </c>
     </row>
     <row r="5594" spans="1:2">
@@ -45255,7 +45255,7 @@
         <v>5614</v>
       </c>
       <c r="B5614">
-        <v>87.34953000197531</v>
+        <v>87.3495300019753</v>
       </c>
     </row>
     <row r="5615" spans="1:2">
@@ -45359,7 +45359,7 @@
         <v>5627</v>
       </c>
       <c r="B5627">
-        <v>45.55085925497826</v>
+        <v>45.55085925497825</v>
       </c>
     </row>
     <row r="5628" spans="1:2">
@@ -45407,7 +45407,7 @@
         <v>5633</v>
       </c>
       <c r="B5633">
-        <v>97.84088704397416</v>
+        <v>97.84088704397412</v>
       </c>
     </row>
     <row r="5634" spans="1:2">
@@ -45511,7 +45511,7 @@
         <v>5646</v>
       </c>
       <c r="B5646">
-        <v>22.61720057371587</v>
+        <v>22.61720057371586</v>
       </c>
     </row>
     <row r="5647" spans="1:2">
@@ -45527,7 +45527,7 @@
         <v>5648</v>
       </c>
       <c r="B5648">
-        <v>30.62094133245334</v>
+        <v>30.62094133245333</v>
       </c>
     </row>
     <row r="5649" spans="1:2">
@@ -45591,7 +45591,7 @@
         <v>5656</v>
       </c>
       <c r="B5656">
-        <v>99.85311279542294</v>
+        <v>99.85311279542292</v>
       </c>
     </row>
     <row r="5657" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>105.763769503145</v>
+        <v>105.7637695031449</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45743,7 +45743,7 @@
         <v>5675</v>
       </c>
       <c r="B5675">
-        <v>55.46398713769826</v>
+        <v>55.46398713769825</v>
       </c>
     </row>
     <row r="5676" spans="1:2">
@@ -45847,7 +45847,7 @@
         <v>5688</v>
       </c>
       <c r="B5688">
-        <v>81.17393707530344</v>
+        <v>81.17393707530343</v>
       </c>
     </row>
     <row r="5689" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>81.18126385126997</v>
+        <v>81.18126385126996</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -45983,7 +45983,7 @@
         <v>5705</v>
       </c>
       <c r="B5705">
-        <v>152.7700195361155</v>
+        <v>152.7700195361154</v>
       </c>
     </row>
     <row r="5706" spans="1:2">
@@ -46247,7 +46247,7 @@
         <v>5738</v>
       </c>
       <c r="B5738">
-        <v>71.99465907339145</v>
+        <v>71.99465907339143</v>
       </c>
     </row>
     <row r="5739" spans="1:2">
@@ -46263,7 +46263,7 @@
         <v>5740</v>
       </c>
       <c r="B5740">
-        <v>60.62262356021526</v>
+        <v>60.62262356021525</v>
       </c>
     </row>
     <row r="5741" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>85.47446149662002</v>
+        <v>85.47446149662001</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46407,7 +46407,7 @@
         <v>5758</v>
       </c>
       <c r="B5758">
-        <v>137.4699528917613</v>
+        <v>137.4699528917612</v>
       </c>
     </row>
     <row r="5759" spans="1:2">
@@ -46447,7 +46447,7 @@
         <v>5763</v>
       </c>
       <c r="B5763">
-        <v>82.42974647596731</v>
+        <v>82.42974647596729</v>
       </c>
     </row>
     <row r="5764" spans="1:2">
@@ -46471,7 +46471,7 @@
         <v>5766</v>
       </c>
       <c r="B5766">
-        <v>75.9071574395204</v>
+        <v>75.90715743952039</v>
       </c>
     </row>
     <row r="5767" spans="1:2">
@@ -46503,7 +46503,7 @@
         <v>5770</v>
       </c>
       <c r="B5770">
-        <v>58.55940344803939</v>
+        <v>58.55940344803938</v>
       </c>
     </row>
     <row r="5771" spans="1:2">
@@ -46759,7 +46759,7 @@
         <v>5802</v>
       </c>
       <c r="B5802">
-        <v>179.0347529499066</v>
+        <v>179.0347529499065</v>
       </c>
     </row>
     <row r="5803" spans="1:2">
@@ -46807,7 +46807,7 @@
         <v>5808</v>
       </c>
       <c r="B5808">
-        <v>61.91184305928652</v>
+        <v>61.91184305928651</v>
       </c>
     </row>
     <row r="5809" spans="1:2">
@@ -46823,7 +46823,7 @@
         <v>5810</v>
       </c>
       <c r="B5810">
-        <v>46.73047018559017</v>
+        <v>46.73047018559016</v>
       </c>
     </row>
     <row r="5811" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>7.636757204125738</v>
+        <v>7.636757204125737</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>54.31251102679784</v>
+        <v>54.31251102679783</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>69.07244774689917</v>
+        <v>69.07244774689916</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -47007,7 +47007,7 @@
         <v>5833</v>
       </c>
       <c r="B5833">
-        <v>82.71197388619818</v>
+        <v>82.71197388619817</v>
       </c>
     </row>
     <row r="5834" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>86.48321201169237</v>
+        <v>86.48321201169236</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47239,7 +47239,7 @@
         <v>5862</v>
       </c>
       <c r="B5862">
-        <v>60.5745599098748</v>
+        <v>60.57455990987479</v>
       </c>
     </row>
     <row r="5863" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>120.376877632877</v>
+        <v>120.3768776328769</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47391,7 +47391,7 @@
         <v>5881</v>
       </c>
       <c r="B5881">
-        <v>87.90402040712257</v>
+        <v>87.90402040712256</v>
       </c>
     </row>
     <row r="5882" spans="1:2">
@@ -47479,7 +47479,7 @@
         <v>5892</v>
       </c>
       <c r="B5892">
-        <v>55.35203400092963</v>
+        <v>55.35203400092962</v>
       </c>
     </row>
     <row r="5893" spans="1:2">
@@ -47543,7 +47543,7 @@
         <v>5900</v>
       </c>
       <c r="B5900">
-        <v>83.34911032424795</v>
+        <v>83.34911032424793</v>
       </c>
     </row>
     <row r="5901" spans="1:2">
@@ -47647,7 +47647,7 @@
         <v>5913</v>
       </c>
       <c r="B5913">
-        <v>22.3896602192992</v>
+        <v>22.38966021929919</v>
       </c>
     </row>
     <row r="5914" spans="1:2">
@@ -47751,7 +47751,7 @@
         <v>5926</v>
       </c>
       <c r="B5926">
-        <v>50.90585327339836</v>
+        <v>50.90585327339835</v>
       </c>
     </row>
     <row r="5927" spans="1:2">
@@ -47759,7 +47759,7 @@
         <v>5927</v>
       </c>
       <c r="B5927">
-        <v>37.47499371362623</v>
+        <v>37.47499371362622</v>
       </c>
     </row>
     <row r="5928" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>41.50003135860114</v>
+        <v>41.50003135860113</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -47959,7 +47959,7 @@
         <v>5952</v>
       </c>
       <c r="B5952">
-        <v>42.96773112021716</v>
+        <v>42.96773112021715</v>
       </c>
     </row>
     <row r="5953" spans="1:2">
@@ -48143,7 +48143,7 @@
         <v>5975</v>
       </c>
       <c r="B5975">
-        <v>75.1050220067043</v>
+        <v>75.10502200670429</v>
       </c>
     </row>
     <row r="5976" spans="1:2">
@@ -48343,7 +48343,7 @@
         <v>6000</v>
       </c>
       <c r="B6000">
-        <v>87.25750569583565</v>
+        <v>87.25750569583563</v>
       </c>
     </row>
     <row r="6001" spans="1:2">
@@ -48479,7 +48479,7 @@
         <v>6017</v>
       </c>
       <c r="B6017">
-        <v>87.31377533525863</v>
+        <v>87.31377533525861</v>
       </c>
     </row>
     <row r="6018" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>76.31042318871842</v>
+        <v>76.3104231887184</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -48671,7 +48671,7 @@
         <v>6041</v>
       </c>
       <c r="B6041">
-        <v>56.79101280075683</v>
+        <v>56.79101280075682</v>
       </c>
     </row>
     <row r="6042" spans="1:2">
@@ -48719,7 +48719,7 @@
         <v>6047</v>
       </c>
       <c r="B6047">
-        <v>73.94797754606931</v>
+        <v>73.9479775460693</v>
       </c>
     </row>
     <row r="6048" spans="1:2">
@@ -48759,7 +48759,7 @@
         <v>6052</v>
       </c>
       <c r="B6052">
-        <v>48.50384304052997</v>
+        <v>48.50384304052996</v>
       </c>
     </row>
     <row r="6053" spans="1:2">
@@ -48783,7 +48783,7 @@
         <v>6055</v>
       </c>
       <c r="B6055">
-        <v>9.260458679621189</v>
+        <v>9.260458679621188</v>
       </c>
     </row>
     <row r="6056" spans="1:2">
@@ -48831,7 +48831,7 @@
         <v>6061</v>
       </c>
       <c r="B6061">
-        <v>58.63032663939544</v>
+        <v>58.63032663939543</v>
       </c>
     </row>
     <row r="6062" spans="1:2">
@@ -48927,7 +48927,7 @@
         <v>6073</v>
       </c>
       <c r="B6073">
-        <v>60.01889722057289</v>
+        <v>60.01889722057288</v>
       </c>
     </row>
     <row r="6074" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>44.94947748364518</v>
+        <v>44.94947748364517</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49111,7 +49111,7 @@
         <v>6096</v>
       </c>
       <c r="B6096">
-        <v>58.41140257351541</v>
+        <v>58.4114025735154</v>
       </c>
     </row>
     <row r="6097" spans="1:2">
@@ -49119,7 +49119,7 @@
         <v>6097</v>
       </c>
       <c r="B6097">
-        <v>51.98611312190408</v>
+        <v>51.98611312190407</v>
       </c>
     </row>
     <row r="6098" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>30.76601149659071</v>
+        <v>30.7660114965907</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49295,7 +49295,7 @@
         <v>6119</v>
       </c>
       <c r="B6119">
-        <v>79.51749956478952</v>
+        <v>79.5174995647895</v>
       </c>
     </row>
     <row r="6120" spans="1:2">
@@ -49359,7 +49359,7 @@
         <v>6127</v>
       </c>
       <c r="B6127">
-        <v>7.881735285342756</v>
+        <v>7.881735285342755</v>
       </c>
     </row>
     <row r="6128" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>48.66180833036844</v>
+        <v>48.66180833036843</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49423,7 +49423,7 @@
         <v>6135</v>
       </c>
       <c r="B6135">
-        <v>80.86738476886367</v>
+        <v>80.86738476886366</v>
       </c>
     </row>
     <row r="6136" spans="1:2">
@@ -49487,7 +49487,7 @@
         <v>6143</v>
       </c>
       <c r="B6143">
-        <v>72.79415686685959</v>
+        <v>72.79415686685958</v>
       </c>
     </row>
     <row r="6144" spans="1:2">
@@ -49495,7 +49495,7 @@
         <v>6144</v>
       </c>
       <c r="B6144">
-        <v>56.01408147726561</v>
+        <v>56.0140814772656</v>
       </c>
     </row>
     <row r="6145" spans="1:2">
@@ -49551,7 +49551,7 @@
         <v>6151</v>
       </c>
       <c r="B6151">
-        <v>6.51957040474869</v>
+        <v>6.519570404748689</v>
       </c>
     </row>
     <row r="6152" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>43.22211678177521</v>
+        <v>43.2221167817752</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49687,7 +49687,7 @@
         <v>6168</v>
       </c>
       <c r="B6168">
-        <v>64.51431388259927</v>
+        <v>64.51431388259925</v>
       </c>
     </row>
     <row r="6169" spans="1:2">
@@ -49695,7 +49695,7 @@
         <v>6169</v>
       </c>
       <c r="B6169">
-        <v>56.54424698620398</v>
+        <v>56.54424698620397</v>
       </c>
     </row>
     <row r="6170" spans="1:2">
@@ -49751,7 +49751,7 @@
         <v>6176</v>
       </c>
       <c r="B6176">
-        <v>9.196129586635024</v>
+        <v>9.196129586635022</v>
       </c>
     </row>
     <row r="6177" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>60.52591011745702</v>
+        <v>60.52591011745701</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49863,7 +49863,7 @@
         <v>6190</v>
       </c>
       <c r="B6190">
-        <v>79.99696378403948</v>
+        <v>79.99696378403947</v>
       </c>
     </row>
     <row r="6191" spans="1:2">
@@ -49991,7 +49991,7 @@
         <v>6206</v>
       </c>
       <c r="B6206">
-        <v>88.29146032023287</v>
+        <v>88.29146032023286</v>
       </c>
     </row>
     <row r="6207" spans="1:2">
@@ -50007,7 +50007,7 @@
         <v>6208</v>
       </c>
       <c r="B6208">
-        <v>95.36385062520846</v>
+        <v>95.36385062520844</v>
       </c>
     </row>
     <row r="6209" spans="1:2">
@@ -50071,7 +50071,7 @@
         <v>6216</v>
       </c>
       <c r="B6216">
-        <v>62.2638213767188</v>
+        <v>62.26382137671879</v>
       </c>
     </row>
     <row r="6217" spans="1:2">
@@ -50087,7 +50087,7 @@
         <v>6218</v>
       </c>
       <c r="B6218">
-        <v>47.08450000029308</v>
+        <v>47.08450000029307</v>
       </c>
     </row>
     <row r="6219" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>61.3236494846932</v>
+        <v>61.32364948469319</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>78.80943993538371</v>
+        <v>78.80943993538369</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50263,7 +50263,7 @@
         <v>6240</v>
       </c>
       <c r="B6240">
-        <v>75.94291210623709</v>
+        <v>75.94291210623707</v>
       </c>
     </row>
     <row r="6241" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>48.03727394698111</v>
+        <v>48.0372739469811</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>19.31191609258935</v>
+        <v>19.31191609258934</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -50631,7 +50631,7 @@
         <v>6286</v>
       </c>
       <c r="B6286">
-        <v>112.9944181689977</v>
+        <v>112.9944181689976</v>
       </c>
     </row>
     <row r="6287" spans="1:2">
@@ -50679,7 +50679,7 @@
         <v>6292</v>
       </c>
       <c r="B6292">
-        <v>53.78469008616875</v>
+        <v>53.78469008616874</v>
       </c>
     </row>
     <row r="6293" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>95.25189748843982</v>
+        <v>95.25189748843979</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>88.97167820096585</v>
+        <v>88.97167820096584</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -50783,7 +50783,7 @@
         <v>6305</v>
       </c>
       <c r="B6305">
-        <v>78.73324146533176</v>
+        <v>78.73324146533174</v>
       </c>
     </row>
     <row r="6306" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>83.55777690377482</v>
+        <v>83.55777690377481</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>45.19184723261811</v>
+        <v>45.1918472326181</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -50999,7 +50999,7 @@
         <v>6332</v>
       </c>
       <c r="B6332">
-        <v>67.88756153759135</v>
+        <v>67.88756153759134</v>
       </c>
     </row>
     <row r="6333" spans="1:2">
@@ -51007,7 +51007,7 @@
         <v>6333</v>
       </c>
       <c r="B6333">
-        <v>53.18858359353158</v>
+        <v>53.18858359353157</v>
       </c>
     </row>
     <row r="6334" spans="1:2">
@@ -51015,7 +51015,7 @@
         <v>6334</v>
       </c>
       <c r="B6334">
-        <v>47.81043696305723</v>
+        <v>47.81043696305722</v>
       </c>
     </row>
     <row r="6335" spans="1:2">
@@ -51071,7 +51071,7 @@
         <v>6341</v>
       </c>
       <c r="B6341">
-        <v>5.41398921850263</v>
+        <v>5.413989218502629</v>
       </c>
     </row>
     <row r="6342" spans="1:2">
@@ -51079,7 +51079,7 @@
         <v>6342</v>
       </c>
       <c r="B6342">
-        <v>6.037204782215981</v>
+        <v>6.03720478221598</v>
       </c>
     </row>
     <row r="6343" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>30.14470089462866</v>
+        <v>30.14470089462865</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>50.40177108690085</v>
+        <v>50.40177108690084</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51295,7 +51295,7 @@
         <v>6369</v>
       </c>
       <c r="B6369">
-        <v>9.332495540924148</v>
+        <v>9.332495540924146</v>
       </c>
     </row>
     <row r="6370" spans="1:2">
@@ -51367,7 +51367,7 @@
         <v>6378</v>
       </c>
       <c r="B6378">
-        <v>78.10079416390057</v>
+        <v>78.10079416390056</v>
       </c>
     </row>
     <row r="6379" spans="1:2">
@@ -51583,7 +51583,7 @@
         <v>6405</v>
       </c>
       <c r="B6405">
-        <v>42.00704425548527</v>
+        <v>42.00704425548526</v>
       </c>
     </row>
     <row r="6406" spans="1:2">
@@ -51631,7 +51631,7 @@
         <v>6411</v>
       </c>
       <c r="B6411">
-        <v>4.557342572495518</v>
+        <v>4.557342572495517</v>
       </c>
     </row>
     <row r="6412" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>9.059675711034302</v>
+        <v>9.0596757110343</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51919,7 +51919,7 @@
         <v>6447</v>
       </c>
       <c r="B6447">
-        <v>64.49643654924093</v>
+        <v>64.49643654924091</v>
       </c>
     </row>
     <row r="6448" spans="1:2">
@@ -51927,7 +51927,7 @@
         <v>6448</v>
       </c>
       <c r="B6448">
-        <v>81.15342210259715</v>
+        <v>81.15342210259713</v>
       </c>
     </row>
     <row r="6449" spans="1:2">
@@ -51935,7 +51935,7 @@
         <v>6449</v>
       </c>
       <c r="B6449">
-        <v>58.23292231097065</v>
+        <v>58.23292231097064</v>
       </c>
     </row>
     <row r="6450" spans="1:2">
@@ -51951,7 +51951,7 @@
         <v>6451</v>
       </c>
       <c r="B6451">
-        <v>90.0950194921548</v>
+        <v>90.09501949215478</v>
       </c>
     </row>
     <row r="6452" spans="1:2">
@@ -51959,7 +51959,7 @@
         <v>6452</v>
       </c>
       <c r="B6452">
-        <v>74.56196137206483</v>
+        <v>74.56196137206481</v>
       </c>
     </row>
     <row r="6453" spans="1:2">
@@ -51967,7 +51967,7 @@
         <v>6453</v>
       </c>
       <c r="B6453">
-        <v>64.71037840746371</v>
+        <v>64.71037840746369</v>
       </c>
     </row>
     <row r="6454" spans="1:2">
@@ -52119,7 +52119,7 @@
         <v>6472</v>
       </c>
       <c r="B6472">
-        <v>73.17104622257808</v>
+        <v>73.17104622257807</v>
       </c>
     </row>
     <row r="6473" spans="1:2">
@@ -52207,7 +52207,7 @@
         <v>6483</v>
       </c>
       <c r="B6483">
-        <v>23.37021730045233</v>
+        <v>23.37021730045232</v>
       </c>
     </row>
     <row r="6484" spans="1:2">
@@ -52239,7 +52239,7 @@
         <v>6487</v>
       </c>
       <c r="B6487">
-        <v>5.677108397012786</v>
+        <v>5.677108397012785</v>
       </c>
     </row>
     <row r="6488" spans="1:2">
@@ -52247,7 +52247,7 @@
         <v>6488</v>
       </c>
       <c r="B6488">
-        <v>6.385197333522463</v>
+        <v>6.385197333522462</v>
       </c>
     </row>
     <row r="6489" spans="1:2">
@@ -52255,7 +52255,7 @@
         <v>6489</v>
       </c>
       <c r="B6489">
-        <v>6.287575370544368</v>
+        <v>6.287575370544367</v>
       </c>
     </row>
     <row r="6490" spans="1:2">
@@ -52319,7 +52319,7 @@
         <v>6497</v>
       </c>
       <c r="B6497">
-        <v>9.939562890407258</v>
+        <v>9.939562890407256</v>
       </c>
     </row>
     <row r="6498" spans="1:2">
@@ -52503,7 +52503,7 @@
         <v>6520</v>
       </c>
       <c r="B6520">
-        <v>68.17506422651813</v>
+        <v>68.17506422651812</v>
       </c>
     </row>
     <row r="6521" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>29.21707244305777</v>
+        <v>29.21707244305776</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52631,7 +52631,7 @@
         <v>6536</v>
       </c>
       <c r="B6536">
-        <v>7.865733606631847</v>
+        <v>7.865733606631846</v>
       </c>
     </row>
     <row r="6537" spans="1:2">
@@ -52703,7 +52703,7 @@
         <v>6545</v>
       </c>
       <c r="B6545">
-        <v>28.43562782557116</v>
+        <v>28.43562782557115</v>
       </c>
     </row>
     <row r="6546" spans="1:2">
@@ -52735,7 +52735,7 @@
         <v>6549</v>
       </c>
       <c r="B6549">
-        <v>65.38590715157811</v>
+        <v>65.3859071515781</v>
       </c>
     </row>
     <row r="6550" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>9.572491414483924</v>
+        <v>9.572491414483922</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -52815,7 +52815,7 @@
         <v>6559</v>
       </c>
       <c r="B6559">
-        <v>3.680503331924639</v>
+        <v>3.680503331924638</v>
       </c>
     </row>
     <row r="6560" spans="1:2">
@@ -52903,7 +52903,7 @@
         <v>6570</v>
       </c>
       <c r="B6570">
-        <v>62.10820065518962</v>
+        <v>62.10820065518961</v>
       </c>
     </row>
     <row r="6571" spans="1:2">
@@ -53007,7 +53007,7 @@
         <v>6583</v>
       </c>
       <c r="B6583">
-        <v>3.271639925888196</v>
+        <v>3.271639925888195</v>
       </c>
     </row>
     <row r="6584" spans="1:2">
@@ -53127,7 +53127,7 @@
         <v>6598</v>
       </c>
       <c r="B6598">
-        <v>77.02053431539485</v>
+        <v>77.02053431539484</v>
       </c>
     </row>
     <row r="6599" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>149.3762569084171</v>
+        <v>149.376256908417</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53367,7 +53367,7 @@
         <v>6628</v>
       </c>
       <c r="B6628">
-        <v>26.2743461438592</v>
+        <v>26.27434614385919</v>
       </c>
     </row>
     <row r="6629" spans="1:2">
@@ -53471,7 +53471,7 @@
         <v>6641</v>
       </c>
       <c r="B6641">
-        <v>95.62087392611446</v>
+        <v>95.62087392611444</v>
       </c>
     </row>
     <row r="6642" spans="1:2">
@@ -53487,7 +53487,7 @@
         <v>6643</v>
       </c>
       <c r="B6643">
-        <v>123.3990261835528</v>
+        <v>123.3990261835527</v>
       </c>
     </row>
     <row r="6644" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>4.809911193613865</v>
+        <v>4.809911193613864</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53591,7 +53591,7 @@
         <v>6656</v>
       </c>
       <c r="B6656">
-        <v>10.74363259207853</v>
+        <v>10.74363259207852</v>
       </c>
     </row>
     <row r="6657" spans="1:2">
@@ -53599,7 +53599,7 @@
         <v>6657</v>
       </c>
       <c r="B6657">
-        <v>25.89212289523708</v>
+        <v>25.89212289523707</v>
       </c>
     </row>
     <row r="6658" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>62.32712472106965</v>
+        <v>62.32712472106964</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53663,7 +53663,7 @@
         <v>6665</v>
       </c>
       <c r="B6665">
-        <v>86.97410600145012</v>
+        <v>86.97410600145011</v>
       </c>
     </row>
     <row r="6666" spans="1:2">
@@ -53719,7 +53719,7 @@
         <v>6672</v>
       </c>
       <c r="B6672">
-        <v>67.79612337352901</v>
+        <v>67.796123373529</v>
       </c>
     </row>
     <row r="6673" spans="1:2">
@@ -53791,7 +53791,7 @@
         <v>6681</v>
       </c>
       <c r="B6681">
-        <v>7.68033686757468</v>
+        <v>7.680336867574679</v>
       </c>
     </row>
     <row r="6682" spans="1:2">
@@ -53799,7 +53799,7 @@
         <v>6682</v>
       </c>
       <c r="B6682">
-        <v>7.178276871243929</v>
+        <v>7.178276871243928</v>
       </c>
     </row>
     <row r="6683" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>5.464602586879445</v>
+        <v>5.464602586879444</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54103,7 +54103,7 @@
         <v>6720</v>
       </c>
       <c r="B6720">
-        <v>3.837648022854853</v>
+        <v>3.837648022854852</v>
       </c>
     </row>
     <row r="6721" spans="1:2">
@@ -54167,7 +54167,7 @@
         <v>6728</v>
       </c>
       <c r="B6728">
-        <v>3.101863873191679</v>
+        <v>3.101863873191678</v>
       </c>
     </row>
     <row r="6729" spans="1:2">
@@ -54247,7 +54247,7 @@
         <v>6738</v>
       </c>
       <c r="B6738">
-        <v>46.64870336580366</v>
+        <v>46.64870336580365</v>
       </c>
     </row>
     <row r="6739" spans="1:2">
@@ -54255,7 +54255,7 @@
         <v>6739</v>
       </c>
       <c r="B6739">
-        <v>31.92921044903759</v>
+        <v>31.92921044903758</v>
       </c>
     </row>
     <row r="6740" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>1.536052719963003</v>
+        <v>1.536052719963002</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>24.12956436162388</v>
+        <v>24.12956436162387</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54455,7 +54455,7 @@
         <v>6764</v>
       </c>
       <c r="B6764">
-        <v>37.3167353527491</v>
+        <v>37.31673535274909</v>
       </c>
     </row>
     <row r="6765" spans="1:2">
@@ -54463,7 +54463,7 @@
         <v>6765</v>
       </c>
       <c r="B6765">
-        <v>31.01981101607144</v>
+        <v>31.01981101607143</v>
       </c>
     </row>
     <row r="6766" spans="1:2">
@@ -54471,7 +54471,7 @@
         <v>6766</v>
       </c>
       <c r="B6766">
-        <v>21.99067330726565</v>
+        <v>21.99067330726564</v>
       </c>
     </row>
     <row r="6767" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>2.848175720705645</v>
+        <v>2.848175720705644</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54759,7 +54759,7 @@
         <v>6802</v>
       </c>
       <c r="B6802">
-        <v>33.85468717304263</v>
+        <v>33.85468717304262</v>
       </c>
     </row>
     <row r="6803" spans="1:2">
@@ -54807,7 +54807,7 @@
         <v>6808</v>
       </c>
       <c r="B6808">
-        <v>49.28048129298254</v>
+        <v>49.28048129298253</v>
       </c>
     </row>
     <row r="6809" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>20.3501788612549</v>
+        <v>20.35017886125489</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>41.67059870310205</v>
+        <v>41.67059870310204</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -55199,7 +55199,7 @@
         <v>6857</v>
       </c>
       <c r="B6857">
-        <v>72.12185190417047</v>
+        <v>72.12185190417046</v>
       </c>
     </row>
     <row r="6858" spans="1:2">
@@ -55223,7 +55223,7 @@
         <v>6860</v>
       </c>
       <c r="B6860">
-        <v>89.69820130580733</v>
+        <v>89.69820130580732</v>
       </c>
     </row>
     <row r="6861" spans="1:2">
@@ -55311,7 +55311,7 @@
         <v>6871</v>
       </c>
       <c r="B6871">
-        <v>6.631289084686395</v>
+        <v>6.631289084686394</v>
       </c>
     </row>
     <row r="6872" spans="1:2">
@@ -55463,7 +55463,7 @@
         <v>6890</v>
       </c>
       <c r="B6890">
-        <v>19.87200415457505</v>
+        <v>19.87200415457504</v>
       </c>
     </row>
     <row r="6891" spans="1:2">
@@ -55567,7 +55567,7 @@
         <v>6903</v>
       </c>
       <c r="B6903">
-        <v>57.74642438679282</v>
+        <v>57.74642438679281</v>
       </c>
     </row>
     <row r="6904" spans="1:2">
@@ -55575,7 +55575,7 @@
         <v>6904</v>
       </c>
       <c r="B6904">
-        <v>66.88877543783349</v>
+        <v>66.88877543783347</v>
       </c>
     </row>
     <row r="6905" spans="1:2">
@@ -55607,7 +55607,7 @@
         <v>6908</v>
       </c>
       <c r="B6908">
-        <v>62.25590845867494</v>
+        <v>62.25590845867493</v>
       </c>
     </row>
     <row r="6909" spans="1:2">
@@ -55695,7 +55695,7 @@
         <v>6919</v>
       </c>
       <c r="B6919">
-        <v>3.636718518748634</v>
+        <v>3.636718518748633</v>
       </c>
     </row>
     <row r="6920" spans="1:2">
@@ -55815,7 +55815,7 @@
         <v>6934</v>
       </c>
       <c r="B6934">
-        <v>35.28399462859401</v>
+        <v>35.283994628594</v>
       </c>
     </row>
     <row r="6935" spans="1:2">
@@ -55863,7 +55863,7 @@
         <v>6940</v>
       </c>
       <c r="B6940">
-        <v>3.448684140343515</v>
+        <v>3.448684140343514</v>
       </c>
     </row>
     <row r="6941" spans="1:2">
@@ -55911,7 +55911,7 @@
         <v>6946</v>
       </c>
       <c r="B6946">
-        <v>17.09676795397144</v>
+        <v>17.09676795397143</v>
       </c>
     </row>
     <row r="6947" spans="1:2">
@@ -55999,7 +55999,7 @@
         <v>6957</v>
       </c>
       <c r="B6957">
-        <v>32.5068534662391</v>
+        <v>32.50685346623909</v>
       </c>
     </row>
     <row r="6958" spans="1:2">
@@ -56047,7 +56047,7 @@
         <v>6963</v>
       </c>
       <c r="B6963">
-        <v>3.217773468982241</v>
+        <v>3.21777346898224</v>
       </c>
     </row>
     <row r="6964" spans="1:2">
@@ -56063,7 +56063,7 @@
         <v>6965</v>
       </c>
       <c r="B6965">
-        <v>2.539677422569167</v>
+        <v>2.539677422569166</v>
       </c>
     </row>
     <row r="6966" spans="1:2">
@@ -56071,7 +56071,7 @@
         <v>6966</v>
       </c>
       <c r="B6966">
-        <v>3.483032066074625</v>
+        <v>3.483032066074624</v>
       </c>
     </row>
     <row r="6967" spans="1:2">
@@ -56295,7 +56295,7 @@
         <v>6994</v>
       </c>
       <c r="B6994">
-        <v>15.77428489201212</v>
+        <v>15.77428489201211</v>
       </c>
     </row>
     <row r="6995" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>23.86539012737454</v>
+        <v>23.86539012737453</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>8.709573048249458</v>
+        <v>8.709573048249457</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56495,7 +56495,7 @@
         <v>7019</v>
       </c>
       <c r="B7019">
-        <v>30.21708944117801</v>
+        <v>30.217089441178</v>
       </c>
     </row>
     <row r="7020" spans="1:2">
@@ -56535,7 +56535,7 @@
         <v>7024</v>
       </c>
       <c r="B7024">
-        <v>58.67633879246527</v>
+        <v>58.67633879246526</v>
       </c>
     </row>
     <row r="7025" spans="1:2">
@@ -56559,7 +56559,7 @@
         <v>7027</v>
       </c>
       <c r="B7027">
-        <v>69.22748232635102</v>
+        <v>69.22748232635101</v>
       </c>
     </row>
     <row r="7028" spans="1:2">
@@ -56583,7 +56583,7 @@
         <v>7030</v>
       </c>
       <c r="B7030">
-        <v>41.53813059362712</v>
+        <v>41.53813059362711</v>
       </c>
     </row>
     <row r="7031" spans="1:2">
@@ -56631,7 +56631,7 @@
         <v>7036</v>
       </c>
       <c r="B7036">
-        <v>7.995534769654957</v>
+        <v>7.995534769654956</v>
       </c>
     </row>
     <row r="7037" spans="1:2">
@@ -56639,7 +56639,7 @@
         <v>7037</v>
       </c>
       <c r="B7037">
-        <v>7.161718357559563</v>
+        <v>7.161718357559562</v>
       </c>
     </row>
     <row r="7038" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>61.48425241387962</v>
+        <v>61.48425241387961</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56711,7 +56711,7 @@
         <v>7046</v>
       </c>
       <c r="B7046">
-        <v>65.0084316537823</v>
+        <v>65.00843165378228</v>
       </c>
     </row>
     <row r="7047" spans="1:2">
@@ -56735,7 +56735,7 @@
         <v>7049</v>
       </c>
       <c r="B7049">
-        <v>55.73419863534402</v>
+        <v>55.73419863534401</v>
       </c>
     </row>
     <row r="7050" spans="1:2">
@@ -56783,7 +56783,7 @@
         <v>7055</v>
       </c>
       <c r="B7055">
-        <v>48.56714638488082</v>
+        <v>48.56714638488081</v>
       </c>
     </row>
     <row r="7056" spans="1:2">
@@ -56855,7 +56855,7 @@
         <v>7064</v>
       </c>
       <c r="B7064">
-        <v>9.942610829209336</v>
+        <v>9.942610829209334</v>
       </c>
     </row>
     <row r="7065" spans="1:2">
@@ -56919,7 +56919,7 @@
         <v>7072</v>
       </c>
       <c r="B7072">
-        <v>87.94563649461249</v>
+        <v>87.94563649461247</v>
       </c>
     </row>
     <row r="7073" spans="1:2">
@@ -57095,7 +57095,7 @@
         <v>7094</v>
       </c>
       <c r="B7094">
-        <v>64.60633818873893</v>
+        <v>64.60633818873892</v>
       </c>
     </row>
     <row r="7095" spans="1:2">
@@ -57119,7 +57119,7 @@
         <v>7097</v>
       </c>
       <c r="B7097">
-        <v>61.59327484026164</v>
+        <v>61.59327484026163</v>
       </c>
     </row>
     <row r="7098" spans="1:2">
@@ -57215,7 +57215,7 @@
         <v>7109</v>
       </c>
       <c r="B7109">
-        <v>34.550144747786</v>
+        <v>34.55014474778599</v>
       </c>
     </row>
     <row r="7110" spans="1:2">
@@ -57343,7 +57343,7 @@
         <v>7125</v>
       </c>
       <c r="B7125">
-        <v>105.029919622337</v>
+        <v>105.0299196223369</v>
       </c>
     </row>
     <row r="7126" spans="1:2">
@@ -57375,7 +57375,7 @@
         <v>7129</v>
       </c>
       <c r="B7129">
-        <v>69.75207948555483</v>
+        <v>69.75207948555482</v>
       </c>
     </row>
     <row r="7130" spans="1:2">
@@ -57423,7 +57423,7 @@
         <v>7135</v>
       </c>
       <c r="B7135">
-        <v>9.552826347789749</v>
+        <v>9.552826347789743</v>
       </c>
     </row>
     <row r="7136" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>77.57150786807819</v>
+        <v>77.57150786807817</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -57663,7 +57663,7 @@
         <v>7165</v>
       </c>
       <c r="B7165">
-        <v>20.14608418993114</v>
+        <v>20.14608418993113</v>
       </c>
     </row>
     <row r="7166" spans="1:2">
@@ -57703,7 +57703,7 @@
         <v>7170</v>
       </c>
       <c r="B7170">
-        <v>50.51606879197877</v>
+        <v>50.51606879197876</v>
       </c>
     </row>
     <row r="7171" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>18.46878002146453</v>
+        <v>18.46878002146452</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57823,7 +57823,7 @@
         <v>7185</v>
       </c>
       <c r="B7185">
-        <v>6.736736044396746</v>
+        <v>6.736736044396745</v>
       </c>
     </row>
     <row r="7186" spans="1:2">
@@ -57855,7 +57855,7 @@
         <v>7189</v>
       </c>
       <c r="B7189">
-        <v>5.682911203578281</v>
+        <v>5.68291120357828</v>
       </c>
     </row>
     <row r="7190" spans="1:2">
@@ -57887,7 +57887,7 @@
         <v>7193</v>
       </c>
       <c r="B7193">
-        <v>7.701291446838966</v>
+        <v>7.701291446838965</v>
       </c>
     </row>
     <row r="7194" spans="1:2">
@@ -57935,7 +57935,7 @@
         <v>7199</v>
       </c>
       <c r="B7199">
-        <v>4.673809003259537</v>
+        <v>4.673809003259536</v>
       </c>
     </row>
     <row r="7200" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>9.122187763580769</v>
+        <v>9.122187763580763</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>17.44332445718848</v>
+        <v>17.44332445718847</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58319,7 +58319,7 @@
         <v>7247</v>
       </c>
       <c r="B7247">
-        <v>6.67097090332114</v>
+        <v>6.670970903321139</v>
       </c>
     </row>
     <row r="7248" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>24.77672382919586</v>
+        <v>24.77672382919585</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58431,7 +58431,7 @@
         <v>7261</v>
       </c>
       <c r="B7261">
-        <v>36.8504593302389</v>
+        <v>36.85045933023889</v>
       </c>
     </row>
     <row r="7262" spans="1:2">
@@ -58495,7 +58495,7 @@
         <v>7269</v>
       </c>
       <c r="B7269">
-        <v>34.60875895551827</v>
+        <v>34.60875895551826</v>
       </c>
     </row>
     <row r="7270" spans="1:2">
@@ -58527,7 +58527,7 @@
         <v>7273</v>
       </c>
       <c r="B7273">
-        <v>4.308261496737241</v>
+        <v>4.30826149673724</v>
       </c>
     </row>
     <row r="7274" spans="1:2">
@@ -58599,7 +58599,7 @@
         <v>7282</v>
       </c>
       <c r="B7282">
-        <v>1.745850553699114</v>
+        <v>1.745850553699113</v>
       </c>
     </row>
     <row r="7283" spans="1:2">
@@ -58687,7 +58687,7 @@
         <v>7293</v>
       </c>
       <c r="B7293">
-        <v>34.12724323899768</v>
+        <v>34.12724323899767</v>
       </c>
     </row>
     <row r="7294" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>4.326724972172905</v>
+        <v>4.326724972172904</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59191,7 +59191,7 @@
         <v>7356</v>
       </c>
       <c r="B7356">
-        <v>31.2656976175083</v>
+        <v>31.26569761750829</v>
       </c>
     </row>
     <row r="7357" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>34.92703410350449</v>
+        <v>34.92703410350448</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59319,7 +59319,7 @@
         <v>7372</v>
       </c>
       <c r="B7372">
-        <v>4.325757837745323</v>
+        <v>4.325757837745322</v>
       </c>
     </row>
     <row r="7373" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>3.816429679655771</v>
+        <v>3.81642967965577</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59367,7 +59367,7 @@
         <v>7378</v>
       </c>
       <c r="B7378">
-        <v>4.74414605253826</v>
+        <v>4.744146052538259</v>
       </c>
     </row>
     <row r="7379" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>3.91326035082948</v>
+        <v>3.913260350829479</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>7.938737602362387</v>
+        <v>7.938737602362386</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>19.78311570854906</v>
+        <v>19.78311570854905</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>4.560156054466667</v>
+        <v>4.560156054466666</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59663,7 +59663,7 @@
         <v>7415</v>
       </c>
       <c r="B7415">
-        <v>7.7563008807957</v>
+        <v>7.756300880795699</v>
       </c>
     </row>
     <row r="7416" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>4.115977588271532</v>
+        <v>4.115977588271531</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59863,7 +59863,7 @@
         <v>7440</v>
       </c>
       <c r="B7440">
-        <v>2.682077709544328</v>
+        <v>2.682077709544327</v>
       </c>
     </row>
     <row r="7441" spans="1:2">
@@ -59879,7 +59879,7 @@
         <v>7442</v>
       </c>
       <c r="B7442">
-        <v>1.631737483375546</v>
+        <v>1.631737483375545</v>
       </c>
     </row>
     <row r="7443" spans="1:2">
@@ -60119,7 +60119,7 @@
         <v>7472</v>
       </c>
       <c r="B7472">
-        <v>1.927123783242316</v>
+        <v>1.927123783242315</v>
       </c>
     </row>
     <row r="7473" spans="1:2">
@@ -60151,7 +60151,7 @@
         <v>7476</v>
       </c>
       <c r="B7476">
-        <v>1.587504271510389</v>
+        <v>1.587504271510388</v>
       </c>
     </row>
     <row r="7477" spans="1:2">
@@ -60255,7 +60255,7 @@
         <v>7489</v>
       </c>
       <c r="B7489">
-        <v>5.736103597095315</v>
+        <v>5.736103597095314</v>
       </c>
     </row>
     <row r="7490" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>3.047381967104535</v>
+        <v>3.047381967104534</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60423,7 +60423,7 @@
         <v>7510</v>
       </c>
       <c r="B7510">
-        <v>36.36161683775178</v>
+        <v>36.36161683775177</v>
       </c>
     </row>
     <row r="7511" spans="1:2">
@@ -60479,7 +60479,7 @@
         <v>7517</v>
       </c>
       <c r="B7517">
-        <v>2.908987961227874</v>
+        <v>2.908987961227873</v>
       </c>
     </row>
     <row r="7518" spans="1:2">
@@ -60495,7 +60495,7 @@
         <v>7519</v>
       </c>
       <c r="B7519">
-        <v>2.718104932326967</v>
+        <v>2.718104932326966</v>
       </c>
     </row>
     <row r="7520" spans="1:2">
@@ -60647,7 +60647,7 @@
         <v>7538</v>
       </c>
       <c r="B7538">
-        <v>2.480310022267538</v>
+        <v>2.480310022267537</v>
       </c>
     </row>
     <row r="7539" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>4.629232898279146</v>
+        <v>4.629232898279145</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -61175,7 +61175,7 @@
         <v>7604</v>
       </c>
       <c r="B7604">
-        <v>9.637699720586072</v>
+        <v>9.63769972058607</v>
       </c>
     </row>
     <row r="7605" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>4.845490017707353</v>
+        <v>4.845490017707352</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>2.082700544115691</v>
+        <v>2.08270054411569</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>6.022639151594512</v>
+        <v>6.022639151594511</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61351,7 +61351,7 @@
         <v>7626</v>
       </c>
       <c r="B7626">
-        <v>1.312984629596307</v>
+        <v>1.312984629596306</v>
       </c>
     </row>
     <row r="7627" spans="1:2">
@@ -61399,7 +61399,7 @@
         <v>7632</v>
       </c>
       <c r="B7632">
-        <v>2.068961373823247</v>
+        <v>2.068961373823246</v>
       </c>
     </row>
     <row r="7633" spans="1:2">
@@ -61663,7 +61663,7 @@
         <v>7665</v>
       </c>
       <c r="B7665">
-        <v>0.4023894667924137</v>
+        <v>0.4023894667924136</v>
       </c>
     </row>
     <row r="7666" spans="1:2">
@@ -61751,7 +61751,7 @@
         <v>7676</v>
       </c>
       <c r="B7676">
-        <v>3.843831821770607</v>
+        <v>3.843831821770606</v>
       </c>
     </row>
     <row r="7677" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>4.36596718424966</v>
+        <v>4.365967184249659</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>4.351841160186183</v>
+        <v>4.351841160186182</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -61951,7 +61951,7 @@
         <v>7701</v>
       </c>
       <c r="B7701">
-        <v>3.814202339761945</v>
+        <v>3.814202339761944</v>
       </c>
     </row>
     <row r="7702" spans="1:2">
@@ -62111,7 +62111,7 @@
         <v>7721</v>
       </c>
       <c r="B7721">
-        <v>0.7771159582455831</v>
+        <v>0.777115958245583</v>
       </c>
     </row>
     <row r="7722" spans="1:2">
@@ -62383,7 +62383,7 @@
         <v>7755</v>
       </c>
       <c r="B7755">
-        <v>0.6664083733912599</v>
+        <v>0.6664083733912598</v>
       </c>
     </row>
     <row r="7756" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>0.9506257359746459</v>
+        <v>0.9506257359746458</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62535,7 +62535,7 @@
         <v>7774</v>
       </c>
       <c r="B7774">
-        <v>2.452025736326332</v>
+        <v>2.452025736326331</v>
       </c>
     </row>
     <row r="7775" spans="1:2">
@@ -62543,7 +62543,7 @@
         <v>7775</v>
       </c>
       <c r="B7775">
-        <v>2.141959508133015</v>
+        <v>2.141959508133014</v>
       </c>
     </row>
     <row r="7776" spans="1:2">
@@ -62583,7 +62583,7 @@
         <v>7780</v>
       </c>
       <c r="B7780">
-        <v>0.6180575134329112</v>
+        <v>0.618057513432911</v>
       </c>
     </row>
     <row r="7781" spans="1:2">
@@ -62607,7 +62607,7 @@
         <v>7783</v>
       </c>
       <c r="B7783">
-        <v>0.9381848703834718</v>
+        <v>0.9381848703834716</v>
       </c>
     </row>
     <row r="7784" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>0.9371092996715848</v>
+        <v>0.9371092996715846</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>1.911799098630714</v>
+        <v>1.911799098630713</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62791,7 +62791,7 @@
         <v>7806</v>
       </c>
       <c r="B7806">
-        <v>0.4249236989550846</v>
+        <v>0.4249236989550845</v>
       </c>
     </row>
     <row r="7807" spans="1:2">
@@ -62871,7 +62871,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>0.74001902617183</v>
+        <v>0.7400190261718299</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>0.7872503547624924</v>
+        <v>0.7872503547624923</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>0.582598848465275</v>
+        <v>0.5825988484652749</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -63135,7 +63135,7 @@
         <v>7849</v>
       </c>
       <c r="B7849">
-        <v>0.7600094017189204</v>
+        <v>0.7600094017189203</v>
       </c>
     </row>
     <row r="7850" spans="1:2">
@@ -63255,7 +63255,7 @@
         <v>7864</v>
       </c>
       <c r="B7864">
-        <v>4.450664714422788</v>
+        <v>4.450664714422787</v>
       </c>
     </row>
     <row r="7865" spans="1:2">
@@ -63351,7 +63351,7 @@
         <v>7876</v>
       </c>
       <c r="B7876">
-        <v>0.6554094173102996</v>
+        <v>0.6554094173102994</v>
       </c>
     </row>
     <row r="7877" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>0.6455973989359177</v>
+        <v>0.6455973989359176</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>0.8821203806875565</v>
+        <v>0.8821203806875564</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63495,7 +63495,7 @@
         <v>7894</v>
       </c>
       <c r="B7894">
-        <v>1.958778386128128</v>
+        <v>1.958778386128127</v>
       </c>
     </row>
     <row r="7895" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>4.620294231599975</v>
+        <v>4.620294231599974</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>1.27444578801234</v>
+        <v>1.274445788012339</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63783,7 +63783,7 @@
         <v>7930</v>
       </c>
       <c r="B7930">
-        <v>3.699582256541493</v>
+        <v>3.699582256541492</v>
       </c>
     </row>
     <row r="7931" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>6.288132205517825</v>
+        <v>6.288132205517824</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63831,7 +63831,7 @@
         <v>7936</v>
       </c>
       <c r="B7936">
-        <v>7.489371778782947</v>
+        <v>7.489371778782946</v>
       </c>
     </row>
     <row r="7937" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>0.6269082588004837</v>
+        <v>0.6269082588004836</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -63983,7 +63983,7 @@
         <v>7955</v>
       </c>
       <c r="B7955">
-        <v>6.291004301696706</v>
+        <v>6.291004301696705</v>
       </c>
     </row>
     <row r="7956" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>9.69821889006964</v>
+        <v>9.698218890069638</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64215,7 +64215,7 @@
         <v>7984</v>
       </c>
       <c r="B7984">
-        <v>0.8593370381420234</v>
+        <v>0.8593370381420233</v>
       </c>
     </row>
     <row r="7985" spans="1:2">
@@ -64223,7 +64223,7 @@
         <v>7985</v>
       </c>
       <c r="B7985">
-        <v>0.7294098545722892</v>
+        <v>0.7294098545722891</v>
       </c>
     </row>
     <row r="7986" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>2.688513549553331</v>
+        <v>2.68851354955333</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>1.712581129390278</v>
+        <v>1.712581129390277</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>6.416790391490156</v>
+        <v>6.416790391490155</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -65007,7 +65007,7 @@
         <v>8083</v>
       </c>
       <c r="B8083">
-        <v>46.6923709505642</v>
+        <v>46.69237095056419</v>
       </c>
     </row>
     <row r="8084" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>4.355416626857851</v>
+        <v>4.35541662685785</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>4.733097274380727</v>
+        <v>4.733097274380726</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65151,7 +65151,7 @@
         <v>8101</v>
       </c>
       <c r="B8101">
-        <v>4.197392722811654</v>
+        <v>4.197392722811653</v>
       </c>
     </row>
     <row r="8102" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>61.75417084048672</v>
+        <v>61.75417084048671</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65303,7 +65303,7 @@
         <v>8120</v>
       </c>
       <c r="B8120">
-        <v>3.659138453206226</v>
+        <v>3.659138453206225</v>
       </c>
     </row>
     <row r="8121" spans="1:2">
@@ -65335,7 +65335,7 @@
         <v>8124</v>
       </c>
       <c r="B8124">
-        <v>9.04710296347573</v>
+        <v>9.047102963475728</v>
       </c>
     </row>
     <row r="8125" spans="1:2">
@@ -65375,7 +65375,7 @@
         <v>8129</v>
       </c>
       <c r="B8129">
-        <v>20.96202326866819</v>
+        <v>20.96202326866818</v>
       </c>
     </row>
     <row r="8130" spans="1:2">
@@ -65383,7 +65383,7 @@
         <v>8130</v>
       </c>
       <c r="B8130">
-        <v>14.88372992683189</v>
+        <v>14.88372992683188</v>
       </c>
     </row>
     <row r="8131" spans="1:2">
@@ -65487,7 +65487,7 @@
         <v>8143</v>
       </c>
       <c r="B8143">
-        <v>5.799670705380961</v>
+        <v>5.79967070538096</v>
       </c>
     </row>
     <row r="8144" spans="1:2">
@@ -65559,7 +65559,7 @@
         <v>8152</v>
       </c>
       <c r="B8152">
-        <v>53.84623500428764</v>
+        <v>53.84623500428763</v>
       </c>
     </row>
     <row r="8153" spans="1:2">
@@ -65591,7 +65591,7 @@
         <v>8156</v>
       </c>
       <c r="B8156">
-        <v>78.42727530096931</v>
+        <v>78.4272753009693</v>
       </c>
     </row>
     <row r="8157" spans="1:2">
@@ -65679,7 +65679,7 @@
         <v>8167</v>
       </c>
       <c r="B8167">
-        <v>26.22771854160818</v>
+        <v>26.22771854160817</v>
       </c>
     </row>
     <row r="8168" spans="1:2">
@@ -65719,7 +65719,7 @@
         <v>8172</v>
       </c>
       <c r="B8172">
-        <v>45.35977693777106</v>
+        <v>45.35977693777105</v>
       </c>
     </row>
     <row r="8173" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>39.5305939787969</v>
+        <v>39.53059397879689</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65791,7 +65791,7 @@
         <v>8181</v>
       </c>
       <c r="B8181">
-        <v>74.95731420321898</v>
+        <v>74.95731420321897</v>
       </c>
     </row>
     <row r="8182" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>1.711646232776948</v>
+        <v>1.711646232776947</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>3.499883650797652</v>
+        <v>3.499883650797651</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66183,7 +66183,7 @@
         <v>8230</v>
       </c>
       <c r="B8230">
-        <v>3.024932725543076</v>
+        <v>3.024932725543075</v>
       </c>
     </row>
     <row r="8231" spans="1:2">
@@ -66191,7 +66191,7 @@
         <v>8231</v>
       </c>
       <c r="B8231">
-        <v>2.199996365919121</v>
+        <v>2.19999636591912</v>
       </c>
     </row>
     <row r="8232" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>2.951987344020267</v>
+        <v>2.951987344020266</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>1.771640805101312</v>
+        <v>1.771640805101311</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -66991,7 +66991,7 @@
         <v>8331</v>
       </c>
       <c r="B8331">
-        <v>0.8157016911957358</v>
+        <v>0.8157016911957357</v>
       </c>
     </row>
     <row r="8332" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>0.7171360394731521</v>
+        <v>0.717136039473152</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67015,7 +67015,7 @@
         <v>8334</v>
       </c>
       <c r="B8334">
-        <v>0.908781053074579</v>
+        <v>0.9087810530745788</v>
       </c>
     </row>
     <row r="8335" spans="1:2">
@@ -67103,7 +67103,7 @@
         <v>8345</v>
       </c>
       <c r="B8345">
-        <v>0.700935072455953</v>
+        <v>0.7009350724559529</v>
       </c>
     </row>
     <row r="8346" spans="1:2">
@@ -67175,7 +67175,7 @@
         <v>8354</v>
       </c>
       <c r="B8354">
-        <v>0.880130428335046</v>
+        <v>0.8801304283350458</v>
       </c>
     </row>
     <row r="8355" spans="1:2">
@@ -67199,7 +67199,7 @@
         <v>8357</v>
       </c>
       <c r="B8357">
-        <v>0.6105314491600877</v>
+        <v>0.6105314491600876</v>
       </c>
     </row>
     <row r="8358" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>0.7059729636105415</v>
+        <v>0.7059729636105414</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67311,7 +67311,7 @@
         <v>8371</v>
       </c>
       <c r="B8371">
-        <v>3.20610924164352</v>
+        <v>3.206109241643519</v>
       </c>
     </row>
     <row r="8372" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>2.292328396649378</v>
+        <v>2.292328396649377</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>1.213290654374877</v>
+        <v>1.213290654374876</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67391,7 +67391,7 @@
         <v>8381</v>
       </c>
       <c r="B8381">
-        <v>0.8993089971050444</v>
+        <v>0.8993089971050443</v>
       </c>
     </row>
     <row r="8382" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>5.429023762785957</v>
+        <v>5.429023762785956</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>11.60772324246764</v>
+        <v>11.60772324246763</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67495,7 +67495,7 @@
         <v>8394</v>
       </c>
       <c r="B8394">
-        <v>0.2931618906833303</v>
+        <v>0.2931618906833302</v>
       </c>
     </row>
     <row r="8395" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>0.8154613729440334</v>
+        <v>0.8154613729440333</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67671,7 +67671,7 @@
         <v>8416</v>
       </c>
       <c r="B8416">
-        <v>0.2479149460954439</v>
+        <v>0.2479149460954438</v>
       </c>
     </row>
     <row r="8417" spans="1:2">
@@ -67759,7 +67759,7 @@
         <v>8427</v>
       </c>
       <c r="B8427">
-        <v>0.9323351724517914</v>
+        <v>0.9323351724517912</v>
       </c>
     </row>
     <row r="8428" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>0.8422158280634278</v>
+        <v>0.8422158280634277</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>0.1767728306735183</v>
+        <v>0.1767728306735182</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>1.314045546756261</v>
+        <v>1.31404554675626</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68063,7 +68063,7 @@
         <v>8465</v>
       </c>
       <c r="B8465">
-        <v>0.7726231792229047</v>
+        <v>0.7726231792229046</v>
       </c>
     </row>
     <row r="8466" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>1.813327229640502</v>
+        <v>1.813327229640501</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>1.672861211520506</v>
+        <v>1.672861211520505</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68175,7 +68175,7 @@
         <v>8479</v>
       </c>
       <c r="B8479">
-        <v>1.610302267607855</v>
+        <v>1.610302267607854</v>
       </c>
     </row>
     <row r="8480" spans="1:2">
@@ -68271,7 +68271,7 @@
         <v>8491</v>
       </c>
       <c r="B8491">
-        <v>11.69740298029801</v>
+        <v>11.697402980298</v>
       </c>
     </row>
     <row r="8492" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>13.19004308730411</v>
+        <v>13.1900430873041</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>3.874106060064324</v>
+        <v>3.874106060064323</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>7.296472421136049</v>
+        <v>7.296472421136048</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68607,7 +68607,7 @@
         <v>8533</v>
       </c>
       <c r="B8533">
-        <v>0.4947478739161501</v>
+        <v>0.49474787391615</v>
       </c>
     </row>
     <row r="8534" spans="1:2">
@@ -68855,7 +68855,7 @@
         <v>8564</v>
       </c>
       <c r="B8564">
-        <v>0.5185188658619718</v>
+        <v>0.5185188658619717</v>
       </c>
     </row>
     <row r="8565" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>1.156314713748725</v>
+        <v>1.156314713748724</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>0.5690736200310539</v>
+        <v>0.5690736200310538</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>0.5349572204204867</v>
+        <v>0.5349572204204865</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -68951,7 +68951,7 @@
         <v>8576</v>
       </c>
       <c r="B8576">
-        <v>0.6019386063065372</v>
+        <v>0.6019386063065371</v>
       </c>
     </row>
     <row r="8577" spans="1:2">
@@ -69263,7 +69263,7 @@
         <v>8615</v>
       </c>
       <c r="B8615">
-        <v>0.994167300188562</v>
+        <v>0.9941673001885618</v>
       </c>
     </row>
     <row r="8616" spans="1:2">
@@ -69287,7 +69287,7 @@
         <v>8618</v>
       </c>
       <c r="B8618">
-        <v>0.4893846739086474</v>
+        <v>0.4893846739086473</v>
       </c>
     </row>
     <row r="8619" spans="1:2">
@@ -69303,7 +69303,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>0.2966552974641736</v>
+        <v>0.2966552974641735</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -69687,7 +69687,7 @@
         <v>8668</v>
       </c>
       <c r="B8668">
-        <v>0.5454491636045629</v>
+        <v>0.5454491636045627</v>
       </c>
     </row>
     <row r="8669" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>0.5283513992090599</v>
+        <v>0.5283513992090598</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -69703,7 +69703,7 @@
         <v>8670</v>
       </c>
       <c r="B8670">
-        <v>0.7250108582819825</v>
+        <v>0.7250108582819824</v>
       </c>
     </row>
     <row r="8671" spans="1:2">
@@ -69887,7 +69887,7 @@
         <v>8693</v>
       </c>
       <c r="B8693">
-        <v>0.5683321503032407</v>
+        <v>0.5683321503032406</v>
       </c>
     </row>
     <row r="8694" spans="1:2">
@@ -70055,7 +70055,7 @@
         <v>8714</v>
       </c>
       <c r="B8714">
-        <v>0.7968982533552239</v>
+        <v>0.7968982533552238</v>
       </c>
     </row>
     <row r="8715" spans="1:2">
@@ -70087,7 +70087,7 @@
         <v>8718</v>
       </c>
       <c r="B8718">
-        <v>0.5363082779087155</v>
+        <v>0.5363082779087154</v>
       </c>
     </row>
     <row r="8719" spans="1:2">
@@ -70095,7 +70095,7 @@
         <v>8719</v>
       </c>
       <c r="B8719">
-        <v>0.736985740921685</v>
+        <v>0.7369857409216849</v>
       </c>
     </row>
     <row r="8720" spans="1:2">
@@ -70159,7 +70159,7 @@
         <v>8727</v>
       </c>
       <c r="B8727">
-        <v>2.927140781362558</v>
+        <v>2.927140781362557</v>
       </c>
     </row>
     <row r="8728" spans="1:2">
@@ -70167,7 +70167,7 @@
         <v>8728</v>
       </c>
       <c r="B8728">
-        <v>1.300678576682917</v>
+        <v>1.300678576682916</v>
       </c>
     </row>
     <row r="8729" spans="1:2">
@@ -70199,7 +70199,7 @@
         <v>8732</v>
       </c>
       <c r="B8732">
-        <v>0.5934512690269046</v>
+        <v>0.5934512690269045</v>
       </c>
     </row>
     <row r="8733" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>0.6680730168908563</v>
+        <v>0.6680730168908562</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
